--- a/Documents/QuestionBank/7/7_RationalNumbers.xlsx
+++ b/Documents/QuestionBank/7/7_RationalNumbers.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="854">
   <si>
     <t>No</t>
   </si>
@@ -1003,1678 +1003,1564 @@
     <t>RN_51</t>
   </si>
   <si>
-    <t>Locate the rational number \( \frac{3}{4} \) on the number line between the integers 0 and 1.</t>
-  </si>
-  <si>
-    <t>\(0.5\)</t>
-  </si>
-  <si>
-    <t>\(0.75\)</t>
-  </si>
-  <si>
-    <t>\(0.25\)</t>
+    <t>Order the following rational numbers: \(\frac{3}{4}, \frac{5}{6}, \frac{2}{3}, \frac{7}{8}\).</t>
+  </si>
+  <si>
+    <t>\(\frac{2}{3}, \frac{3}{4}, \frac{5}{6}, \frac{7}{8}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{3}{4}, \frac{2}{3}, \frac{5}{6}, \frac{7}{8}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{3}{4}, \frac{5}{6}, \frac{2}{3}, \frac{7}{8}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{2}{3}, \frac{5}{6}, \frac{3}{4}, \frac{7}{8}\)</t>
+  </si>
+  <si>
+    <t>Convert each fraction to a decimal or find a common denominator to compare: \(\frac{2}{3} = 0.666\), \(\frac{3}{4} = 0.75\), \(\frac{5}{6} = 0.833\), \(\frac{7}{8} = 0.875\). Therefore, the order from least to greatest is \(\frac{2}{3}, \frac{3}{4}, \frac{5}{6}, \frac{7}{8}\).</t>
+  </si>
+  <si>
+    <t>RN_52</t>
+  </si>
+  <si>
+    <t>Arrange the following fractions in ascending order: \(\frac{1}{2}, \frac{3}{5}, \frac{4}{9}, \frac{7}{10}\).</t>
+  </si>
+  <si>
+    <t>\(\frac{1}{2}, \frac{4}{9}, \frac{3}{5}, \frac{7}{10}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{1}{2}, \frac{3}{5}, \frac{4}{9}, \frac{7}{10}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{4}{9}, \frac{1}{2}, \frac{3}{5}, \frac{7}{10}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{4}{9}, \frac{3}{5}, \frac{1}{2}, \frac{7}{10}\)</t>
+  </si>
+  <si>
+    <t>Convert each fraction to a decimal or find a common denominator to compare: \(\frac{4}{9} = 0.444\), \(\frac{1}{2} = 0.5\), \(\frac{3}{5} = 0.6\), \(\frac{7}{10} = 0.7\). Therefore, the order from least to greatest is \(\frac{4}{9}, \frac{1}{2}, \frac{3}{5}, \frac{7}{10}\).</t>
+  </si>
+  <si>
+    <t>RN_53</t>
+  </si>
+  <si>
+    <t>Order these rational numbers: \(\frac{8}{15}, \frac{5}{12}, \frac{11}{20}, \frac{9}{14}\).</t>
+  </si>
+  <si>
+    <t>\(\frac{5}{12}, \frac{8}{15}, \frac{11}{20}, \frac{9}{14}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{5}{12}, \frac{11}{20}, \frac{8}{15}, \frac{9}{14}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{11}{20}, \frac{5}{12}, \frac{8}{15}, \frac{9}{14}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{8}{15}, \frac{9}{14}, \frac{5}{12}, \frac{11}{20}\)</t>
+  </si>
+  <si>
+    <t>Convert each fraction to a decimal or find a common denominator to compare: \(\frac{5}{12} = 0.416\), \(\frac{11}{20} = 0.55\), \(\frac{8}{15} = 0.533\), \(\frac{9}{14} = 0.642\). Therefore, the order from least to greatest is \(\frac{5}{12}, \frac{11}{20}, \frac{8}{15}, \frac{9}{14}\).</t>
+  </si>
+  <si>
+    <t>RN_54</t>
+  </si>
+  <si>
+    <t>Place these fractions in order from smallest to largest: \(\frac{13}{18}, \frac{7}{11}, \frac{5}{9}, \frac{3}{8}\).</t>
+  </si>
+  <si>
+    <t>\(\frac{3}{8}, \frac{5}{9}, \frac{13}{18}, \frac{7}{11}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{3}{8}, \frac{7}{11}, \frac{5}{9}, \frac{13}{18}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{5}{9}, \frac{3}{8}, \frac{7}{11}, \frac{13}{18}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{3}{8}, \frac{5}{9}, \frac{7}{11}, \frac{13}{18}\)</t>
+  </si>
+  <si>
+    <t>Convert each fraction to a decimal or find a common denominator to compare: \(\frac{3}{8} = 0.375\), \(\frac{5}{9} = 0.555\), \(\frac{7}{11} = 0.636\), \(\frac{13}{18} = 0.722\). Therefore, the order from least to greatest is \(\frac{3}{8}, \frac{5}{9}, \frac{7}{11}, \frac{13}{18}\).</t>
+  </si>
+  <si>
+    <t>RN_55</t>
+  </si>
+  <si>
+    <t>Sequence these fractions: \(\frac{3}{7}, \frac{6}{11}, \frac{4}{9}, \frac{5}{8}\).</t>
+  </si>
+  <si>
+    <t>\(\frac{3}{7}, \frac{4}{9}, \frac{5}{8}, \frac{6}{11}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{3}{7}, \frac{6}{11}, \frac{4}{9}, \frac{5}{8}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{4}{9}, \frac{3}{7}, \frac{6}{11}, \frac{5}{8}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{3}{7}, \frac{4}{9}, \frac{6}{11}, \frac{5}{8}\)</t>
+  </si>
+  <si>
+    <t>Convert each fraction to a decimal or find a common denominator to compare: \(\frac{3}{7} = 0.428\), \(\frac{4}{9} = 0.444\), \(\frac{6}{11} = 0.545\), \(\frac{5}{8} = 0.625\). Therefore, the order from least to greatest is \(\frac{3}{7}, \frac{4}{9}, \frac{6}{11}, \frac{5}{8}\).</t>
+  </si>
+  <si>
+    <t>RN_56</t>
+  </si>
+  <si>
+    <t>Convert the following rational numbers to like denominators: \( \frac{3}{4}, \frac{2}{3}, \frac{5}{6} \) .</t>
+  </si>
+  <si>
+    <t>\( \frac{9}{12}, \frac{8}{12}, \frac{10}{12} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{15}{12}, \frac{18}{12}, \frac{9}{12} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{10}{12}, \frac{15}{12}, \frac{7}{12} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{12}{9}, \frac{5}{9}, \frac{11}{9} \).</t>
+  </si>
+  <si>
+    <t>To convert these fractions to like denominators, we first find the least common denominator (LCD) of 4, 3, and 6, which is 12. Convert each fraction: \( \frac{3}{4} = \frac{9}{12}, \frac{2}{3} = \frac{8}{12}, \frac{5}{6} = \frac{10}{12} \). Therefore, with like denominators, the fractions are \( \frac{9}{12}, \frac{8}{12}, \frac{10}{12} \)</t>
+  </si>
+  <si>
+    <t>RN_57</t>
+  </si>
+  <si>
+    <t>Convert the following rational numbers to like denominators: \( \frac{7}{8}, \frac{11}{12}, \frac{5}{6} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{21}{24}, \frac{20}{24}, \frac{26}{24} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{21}{24}, \frac{22}{24}, \frac{20}{24} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{12}{24}, \frac{20}{24}, \frac{14}{24} \)</t>
+  </si>
+  <si>
+    <t>The least common denominator of 8, 12, and 6 is 24. Convert each fraction: \( \frac{7}{8} = \frac{21}{24}, \frac{11}{12} = \frac{22}{24}, \frac{5}{6} = \frac{20}{24} \). Therefore, with like denominators, the fractions are \( \frac{21}{24}, \frac{22}{24}, \frac{20}{24} \).</t>
+  </si>
+  <si>
+    <t>RN_58</t>
+  </si>
+  <si>
+    <t>Convert the following rational numbers to like denominators: \( \frac{1}{2}, \frac{3}{4}, \frac{5}{8} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{4}{16}, \frac{6}{16}, \frac{5}{16} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{5}{16}, \frac{6}{16}, \frac{5}{16} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{2}{4}, \frac{4}{4}, \frac{3}{4} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{4}{8}, \frac{6}{8}, \frac{5}{8} \)</t>
+  </si>
+  <si>
+    <t>The least common denominator of 2, 4, and 8 is 8. Convert each fraction: \( \frac{1}{2} = \frac{4}{8}, \frac{3}{4} = \frac{6}{8}, \frac{5}{8} = \frac{5}{8} \). Therefore, with like denominators, the fractions are \( \frac{4}{8}, \frac{6}{8}, \frac{5}{8} \).</t>
+  </si>
+  <si>
+    <t>RN_59</t>
+  </si>
+  <si>
+    <t>Convert the following rational numbers to like denominators: \( \frac{9}{10}, \frac{7}{5}, \frac{3}{2} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{9}{10}, \frac{12}{10}, \frac{15}{10} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{9}{10}, \frac{14}{10}, \frac{5}{10} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{9}{10}, \frac{4}{10}, \frac{15}{10} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{19}{10}, \frac{14}{10}, \frac{15}{10} \)</t>
+  </si>
+  <si>
+    <t>The least common denominator of 10, 5, and 2 is 10. Convert each fraction: \( \frac{9}{10} = \frac{9}{10}, \frac{7}{5} = \frac{14}{10}, \frac{3}{2} = \frac{15}{10} \). Therefore, with like denominators, the fractions are \( \frac{9}{10}, \frac{14}{10}, \frac{15}{10} \).</t>
+  </si>
+  <si>
+    <t>RN_60</t>
+  </si>
+  <si>
+    <t>Convert the following rational numbers to like denominators: \( \frac{3}{7}, \frac{5}{14}, \frac{2}{21} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{18}{42}, \frac{15}{42}, \frac{14}{42} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{8}{42}, \frac{15}{42}, \frac{4}{42} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{18}{42}, \frac{15}{42}, \frac{4}{42} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{18}{42}, \frac{5}{42}, \frac{4}{42} \)</t>
+  </si>
+  <si>
+    <t>The least common denominator of 7, 14, and 21 is 42. Convert each fraction: \( \frac{3}{7} = \frac{18}{42}, \frac{5}{14} = \frac{15}{42}, \frac{2}{21} = \frac{4}{42} \). Therefore, with like denominators, the fractions are \( \frac{18}{42}, \frac{15}{42}, \frac{4}{42} \).</t>
+  </si>
+  <si>
+    <t>RN_61</t>
+  </si>
+  <si>
+    <t>Place the following rational numbers on a number line: \( \frac{3}{4}, \frac{5}{6}, \frac{7}{8}, \frac{2}{3} \). Which one is closest to 1?</t>
+  </si>
+  <si>
+    <t>\( \frac{5}{6} \)</t>
+  </si>
+  <si>
+    <t>To find which number is closest to 1, we compare the decimal values: \( \frac{3}{4} = 0.75 \), \( \frac{5}{6} = 0.8333 \), \( \frac{7}{8} = 0.875 \), and \( \frac{2}{3} = 0.6667 \). The number \( \frac{7}{8} \) or 0.875 is closest to 1.</t>
+  </si>
+  <si>
+    <t>RN_62</t>
+  </si>
+  <si>
+    <t>Given the rational numbers \( \frac{9}{10}, \frac{4}{5}, \frac{11}{12}, \frac{5}{6} \), which one is the smallest?</t>
+  </si>
+  <si>
+    <t>\( \frac{9}{10} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{4}{5} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{11}{12} \)</t>
+  </si>
+  <si>
+    <t>Comparing the decimal values: \( \frac{9}{10} = 0.9 \), \( \frac{4}{5} = 0.8 \), \( \frac{11}{12} = 0.9167 \), \( \frac{5}{6} = 0.8333 \). The smallest value is \( \frac{4}{5} \) or 0.8.</t>
+  </si>
+  <si>
+    <t>RN_63</t>
+  </si>
+  <si>
+    <t>Identify the largest rational number among \( \frac{1}{2}, \frac{5}{9}, \frac{11}{20}, \frac{3}{5} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{11}{20} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{3}{5} \)</t>
+  </si>
+  <si>
+    <t>The decimal values are \( \frac{1}{2} = 0.5 \), \( \frac{5}{9} = 0.5556 \), \( \frac{11}{20} = 0.55 \), \( \frac{3}{5} = 0.6 \). Therefore, \( \frac{3}{5} \) or 0.6 is the largest.</t>
+  </si>
+  <si>
+    <t>RN_64</t>
+  </si>
+  <si>
+    <t>Which of the following rational numbers is closest to \( \frac{1}{3} \)? \( \frac{2}{7}, \frac{3}{8}, \frac{5}{16}, \frac{1}{4} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{2}{7} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{3}{8} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{5}{16} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{1}{4} \)</t>
+  </si>
+  <si>
+    <t>The decimal equivalents are \( \frac{2}{7} = 0.2857 \), \( \frac{3}{8} = 0.375 \), \( \frac{5}{16} = 0.3125 \), \( \frac{1}{4} = 0.25 \). The number closest to \( \frac{1}{3} \) or 0.3333 is \( \frac{5}{16} = 0.3125 \).</t>
+  </si>
+  <si>
+    <t>RN_65</t>
+  </si>
+  <si>
+    <t>Among the rational numbers \( \frac{6}{11}, \frac{7}{13}, \frac{8}{15}, \frac{5}{9} \), which is the second smallest?</t>
+  </si>
+  <si>
+    <t>\( \frac{6}{11} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{7}{13} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{8}{15} \)</t>
+  </si>
+  <si>
+    <t>Converting to decimals: \( \frac{6}{11} = 0.5455 \), \( \frac{7}{13} = 0.5385 \), \( \frac{8}{15} = 0.5333 \), \( \frac{5}{9} = 0.5556 \). The smallest is \( \frac{8}{15} \) and the second smallest is \( \frac{7}{13} \) or 0.5385.</t>
+  </si>
+  <si>
+    <t>RN_66</t>
+  </si>
+  <si>
+    <t>Find the midpoint between the rational numbers \(\frac{3}{4}\) and \(\frac{5}{2}\) .</t>
+  </si>
+  <si>
+    <t>\(\frac{7}{8}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{13}{8}\)</t>
+  </si>
+  <si>
+    <t>To find the midpoint, use the formula for the midpoint of two numbers, \(\frac{a+b}{2}\). Here, \(a = \frac{3}{4}\) and \(b = \frac{5}{2}\). First, convert \(\frac{5}{2}\) to \(\frac{10}{4}\). Then, \(\text{Midpoint} = \frac{\frac{3}{4} + \frac{10}{4}}{2} = \frac{\frac{13}{4}}{2} = \frac{13}{8}\).</t>
+  </si>
+  <si>
+    <t>RN_67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine the midpoint of the rational numbers \(-\frac{7}{3}\) and \(\frac{4}{3}\). </t>
+  </si>
+  <si>
+    <t>\(-\frac{1}{3}\)</t>
+  </si>
+  <si>
+    <t>\(-\frac{1}{2}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{0}{1}\)</t>
+  </si>
+  <si>
+    <t>The midpoint is given by \(\frac{a+b}{2}\). Here, \(a = -\frac{7}{3}\) and \(b = \frac{4}{3}\). Thus, \(\text{Midpoint} = \frac{-\frac{7}{3} + \frac{4}{3}}{2} = \frac{-\frac{3}{3}}{2} = \frac{-1}{2}\).</t>
+  </si>
+  <si>
+    <t>RN_68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the midpoint between \(\frac{2}{5}\) and \(\frac{8}{5}\)? </t>
   </si>
   <si>
     <t>\(1\)</t>
   </si>
   <si>
-    <t>The rational number \( \frac{3}{4} \) is equivalent to 0.75. On the number line between 0 and 1, it is closer to 1 than to 0.</t>
-  </si>
-  <si>
-    <t>RN_52</t>
-  </si>
-  <si>
-    <t>Locate the rational number \( \frac{-5}{6} \) on the number line between the integers -1 and 0.</t>
-  </si>
-  <si>
-    <t>\(-0.833\)</t>
-  </si>
-  <si>
-    <t>\(-0.5\)</t>
-  </si>
-  <si>
-    <t>\(-0.67\)</t>
-  </si>
-  <si>
-    <t>\(-1\)</t>
-  </si>
-  <si>
-    <t>The rational number \( \frac{-5}{6} \) is approximately -0.83. On the number line between -1 and 0, it is closer to -1.</t>
-  </si>
-  <si>
-    <t>RN_53</t>
-  </si>
-  <si>
-    <t>Locate the rational number \( \frac{7}{3} \) on the number line between the integers 2 and 3.</t>
-  </si>
-  <si>
-    <t>\(2.65\)</t>
-  </si>
-  <si>
-    <t>\(2.33\)</t>
-  </si>
-  <si>
-    <t>\(3\)</t>
-  </si>
-  <si>
-    <t>\(2\)</t>
-  </si>
-  <si>
-    <t>The rational number \( \frac{7}{3} \) is approximately 2.33. On the number line between 2 and 3, it is closer to 2.</t>
-  </si>
-  <si>
-    <t>RN_54</t>
-  </si>
-  <si>
-    <t>Locate the rational number \( \frac{11}{8} \) on the number line between the integers 1 and 2.</t>
+    <t>\(\frac{6}{5}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{7}{5}\)</t>
+  </si>
+  <si>
+    <t>The midpoint is calculated as \(\frac{a+b}{2}\), where \(a = \frac{2}{5}\) and \(b\) = \(\frac{8}{5}\). Thus, \(\text{Midpoint} = \frac{\frac{2}{5} + \frac{8}{5}}{2} = \frac{\frac{10}{5}}{2} = \frac{5}{5} = 1\).</t>
+  </si>
+  <si>
+    <t>RN_69</t>
+  </si>
+  <si>
+    <t>Calculate the midpoint of \(-\frac{9}{4}\) and \(-\frac{1}{2}\).</t>
+  </si>
+  <si>
+    <t>\(-\frac{11}{8}\)</t>
+  </si>
+  <si>
+    <t>\(-\frac{5}{8}\)</t>
+  </si>
+  <si>
+    <t>\(-\frac{7}{8}\)</t>
+  </si>
+  <si>
+    <t>\(-\frac{9}{8}\)</t>
+  </si>
+  <si>
+    <t>Using the midpoint formula, \(\frac{a+b}{2}\), where \(a = -\frac{9}{4}\) and \(b = -\frac{1}{2}\) (which is \(-\frac{2}{4}\)), calculate: \(\text{Midpoint} = \frac{-\frac{9}{4} + -\frac{2}{4}}{2} = \frac{-\frac{11}{4}}{2} = -\frac{11}{8}\).</t>
+  </si>
+  <si>
+    <t>RN_70</t>
+  </si>
+  <si>
+    <t>Find the midpoint between \(\frac{1}{3}\) and \(\frac{7}{6}\) .</t>
+  </si>
+  <si>
+    <t>\(\frac{3}{2}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{3}{4}\)</t>
+  </si>
+  <si>
+    <t>The midpoint is \(\frac{a+b}{2}\). Convert \(\frac{1}{3}\) to \(\frac{2}{6}\) and \(\frac{7}{6}\) remains the same. \(\text{Midpoint} = \frac{\frac{2}{6} + \frac{7}{6}}{2} = \frac{\frac{9}{6}}{2} = \frac{9}{12} = \frac{3}{4}\).</t>
+  </si>
+  <si>
+    <t>Sec_D</t>
+  </si>
+  <si>
+    <t>\(Section\;D\)</t>
+  </si>
+  <si>
+    <t>RATIONAL NUMBERS IN STANDARD FORM</t>
+  </si>
+  <si>
+    <t>Section D</t>
+  </si>
+  <si>
+    <t>RN_71</t>
+  </si>
+  <si>
+    <t>Express the rational number \(\frac{8}{12}\) in its standard form.</t>
+  </si>
+  <si>
+    <t>\(\frac{4}{6}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{8}{12}\)</t>
+  </si>
+  <si>
+    <t>The greatest common divisor of 8 and 12 is 4. Dividing both numerator and denominator by 4, we get \(\frac{8 \div 4}{12 \div 4} = \frac{2}{3}\).</t>
+  </si>
+  <si>
+    <t>RN_72</t>
+  </si>
+  <si>
+    <t>Express the rational number \(\frac{45}{60}\) in its standard form.</t>
+  </si>
+  <si>
+    <t>\(\frac{15}{20}\)</t>
+  </si>
+  <si>
+    <t>The greatest common divisor of 45 and 60 is 15. Dividing both numerator and denominator by 15, we get \(\frac{45 \div 15}{60 \div 15} = \frac{3}{4}\).</t>
+  </si>
+  <si>
+    <t>RN_73</t>
+  </si>
+  <si>
+    <t>Express the rational number \(\frac{14}{35}\) in its standard form.</t>
+  </si>
+  <si>
+    <t>\(\frac{4}{10}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{2}{5}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{7}{17}\)</t>
+  </si>
+  <si>
+    <t>The greatest common divisor of 14 and 35 is 7. Dividing both numerator and denominator by 7, we get \(\frac{14 \div 7}{35 \div 7} = \frac{2}{5}\).</t>
+  </si>
+  <si>
+    <t>RN_74</t>
+  </si>
+  <si>
+    <t>Express the rational number \(\frac{18}{27}\) in its standard form.</t>
+  </si>
+  <si>
+    <t>\(\frac{6}{9}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{18}{27}\)</t>
+  </si>
+  <si>
+    <t>The greatest common divisor of 18 and 27 is 9. Dividing both numerator and denominator by 9, we get \(\frac{18 \div 9}{27 \div 9} = \frac{2}{3}\).</t>
+  </si>
+  <si>
+    <t>RN_75</t>
+  </si>
+  <si>
+    <t>Express the rational number \(\frac{20}{50}\) in its standard form.</t>
+  </si>
+  <si>
+    <t>\(\frac{5}{10}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{10}{25}\)</t>
+  </si>
+  <si>
+    <t>The greatest common divisor of 20 and 50 is 10. Dividing both numerator and denominator by 10, we get \(\frac{20 \div 10}{50 \div 10} = \frac{2}{5}\).</t>
+  </si>
+  <si>
+    <t>RN_76</t>
+  </si>
+  <si>
+    <t>Simplify the rational number \(\frac{-45}{60}\) to its standard form.</t>
+  </si>
+  <si>
+    <t>\(\frac{-15}{20}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{-9}{12}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{-3}{4}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{-45}{60}\)</t>
+  </si>
+  <si>
+    <t>The greatest common divisor of 45 and 60 is 15. Divide both numerator and denominator by 15: \(\frac{-45}{60} = \frac{-3}{4}\).</t>
+  </si>
+  <si>
+    <t>RN_77</t>
+  </si>
+  <si>
+    <t>Simplify \(\frac{56}{-84}\) to its standard form.</t>
+  </si>
+  <si>
+    <t>\(\frac{-2}{3}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{-4}{6}\)</t>
+  </si>
+  <si>
+    <t>The greatest common divisor of 56 and 84 is 28. Divide both numerator and denominator by 28: \(\frac{56}{-84} = \frac{-2}{3}\).</t>
+  </si>
+  <si>
+    <t>RN_78</t>
+  </si>
+  <si>
+    <t>Simplify \(\frac{-36}{48}\) to its standard form.</t>
+  </si>
+  <si>
+    <t>\(\frac{-18}{24}\)</t>
+  </si>
+  <si>
+    <t>The greatest common divisor of 36 and 48 is 12. Divide both numerator and denominator by 12: \(\frac{-36}{48} = \frac{-3}{4}\).</t>
+  </si>
+  <si>
+    <t>RN_79</t>
+  </si>
+  <si>
+    <t>Simplify \(\frac{-72}{-96}\) to its standard form.</t>
+  </si>
+  <si>
+    <t>The greatest common divisor of 72 and 96 is 24. Divide both numerator and denominator by 24: \(\frac{-72}{-96} = \frac{3}{4}\).</t>
+  </si>
+  <si>
+    <t>RN_80</t>
+  </si>
+  <si>
+    <t>Simplify \(\frac{90}{-120}\) to its standard form.</t>
+  </si>
+  <si>
+    <t>The greatest common divisor of 90 and 120 is 30. Divide both numerator and denominator by 30: \(\frac{90}{-120} = \frac{-3}{4}\).</t>
+  </si>
+  <si>
+    <t>RN_81</t>
+  </si>
+  <si>
+    <t>Convert the improper fraction \( \frac{17}{5} \) to mixed fraction form.</t>
+  </si>
+  <si>
+    <t>3\( \frac{1}{2} \)</t>
+  </si>
+  <si>
+    <t>2\( \frac{7}{5} \)</t>
+  </si>
+  <si>
+    <t>3\( \frac{2}{5} \)</t>
+  </si>
+  <si>
+    <t>3\( \frac{3}{5} \)</t>
+  </si>
+  <si>
+    <t>Divide 17 by 5. The quotient is 3 and the remainder is 2, so \( \frac{17}{5} = 3\frac{2}{5} \).</t>
+  </si>
+  <si>
+    <t>RN_82</t>
+  </si>
+  <si>
+    <t>Convert the improper fraction \( \frac{22}{7} \) to mixed fraction form.</t>
+  </si>
+  <si>
+    <t>3\( \frac{1}{7} \)</t>
+  </si>
+  <si>
+    <t>3\( \frac{2}{7} \)</t>
+  </si>
+  <si>
+    <t>4\( \frac{1}{7} \)</t>
+  </si>
+  <si>
+    <t>3\( \frac{3}{7} \)</t>
+  </si>
+  <si>
+    <t>Divide 22 by 7. The quotient is 3 and the remainder is 1, so \( \frac{22}{7} = 3\frac{1}{7} \).</t>
+  </si>
+  <si>
+    <t>RN_83</t>
+  </si>
+  <si>
+    <t>Convert the improper fraction \( \frac{45}{8} \) to mixed fraction form.</t>
+  </si>
+  <si>
+    <t>5\( \frac{4}{8} \)</t>
+  </si>
+  <si>
+    <t>5\( \frac{5}{8} \)</t>
+  </si>
+  <si>
+    <t>6\( \frac{1}{8} \)</t>
+  </si>
+  <si>
+    <t>5\( \frac{1}{8} \)</t>
+  </si>
+  <si>
+    <t>Divide 45 by 8. The quotient is 5 and the remainder is 5, so \( \frac{45}{8} = 5\frac{5}{8} \).</t>
+  </si>
+  <si>
+    <t>RN_84</t>
+  </si>
+  <si>
+    <t>Convert the improper fraction \( \frac{29}{4} \) to mixed fraction form.</t>
+  </si>
+  <si>
+    <t>7\( \frac{1}{4} \)</t>
+  </si>
+  <si>
+    <t>6\( \frac{3}{4} \)</t>
+  </si>
+  <si>
+    <t>7\( \frac{1}{2} \)</t>
+  </si>
+  <si>
+    <t>Divide 29 by 4. The quotient is 7 and the remainder is 1, so \( \frac{29}{4} = 7\frac{1}{4} \).</t>
+  </si>
+  <si>
+    <t>RN_85</t>
+  </si>
+  <si>
+    <t>Convert the improper fraction \( \frac{56}{9} \) to mixed fraction form.</t>
+  </si>
+  <si>
+    <t>5\( \frac{5}{9} \)</t>
+  </si>
+  <si>
+    <t>6\( \frac{1}{9} \)</t>
+  </si>
+  <si>
+    <t>6\( \frac{2}{9} \)</t>
+  </si>
+  <si>
+    <t>5\( \frac{2}{9} \)</t>
+  </si>
+  <si>
+    <t>Divide 56 by 9. The quotient is 6 and the remainder is 2, so \( \frac{56}{9} = 6\frac{2}{9} \).</t>
+  </si>
+  <si>
+    <t>RN_86</t>
+  </si>
+  <si>
+    <t>Simplify the rational expression: \( \frac{120x^3y^2}{30xy} \)</t>
+  </si>
+  <si>
+    <t>\(4x^2y\)</t>
+  </si>
+  <si>
+    <t>\(4xy\)</t>
+  </si>
+  <si>
+    <t>\(4x^2\)</t>
+  </si>
+  <si>
+    <t>\(4xy^2\)</t>
+  </si>
+  <si>
+    <t>First, factor out the common terms in the numerator and denominator. The expression becomes: \( \frac{120x^3y^2}{30xy} = \frac{120}{30} \frac{x^3}{x} \times \frac{y^2}{y} \)= \( 4 \times x^2 \times y = 4x^2y \)times</t>
+  </si>
+  <si>
+    <t>RN_87</t>
+  </si>
+  <si>
+    <t>Simplify the rational expression: \( \frac{75a^4b^3}{15a^2b} \)</t>
+  </si>
+  <si>
+    <t>\(5ab^2\)</t>
+  </si>
+  <si>
+    <t>\(5a^2b^2\)</t>
+  </si>
+  <si>
+    <t>\(5a^2b\)</t>
+  </si>
+  <si>
+    <t>\(5a^3b^2\)</t>
+  </si>
+  <si>
+    <t>Simplify by dividing the coefficients and subtracting the exponents of like bases: \( \frac{75a^4b^3}{15a^2b} = \frac{75}{15} \cdot \frac{a^4}{a^2} \cdot \frac{b^3}{b} \)= \( 5 \cdot a^{2} \cdot b^2 = 5a^2b^2 \)</t>
+  </si>
+  <si>
+    <t>RN_88</t>
+  </si>
+  <si>
+    <t>Simplify the rational expression: \( \frac{56x^5y^3z^2}{8x^2y} \)</t>
+  </si>
+  <si>
+    <t>\(7x^3y^2z^2\)</t>
+  </si>
+  <si>
+    <t>\(7x^3y^2z\)</t>
+  </si>
+  <si>
+    <t>\(7x^3yz^2\)</t>
+  </si>
+  <si>
+    <t>\(7x^3yz\)</t>
+  </si>
+  <si>
+    <t>First, divide the coefficients and then the exponents of each variable: \( \frac{56x^5y^3z^2}{8x^2y} = \frac{56}{8} \cdot \frac{x^5}{x^2} \cdot \frac{y^3}{y} \cdot z^2 \)= \( 7 \cdot x^{3} \cdot y^{2} \cdot z^2 = 7x^3y^2z^2 \)</t>
+  </si>
+  <si>
+    <t>RN_89</t>
+  </si>
+  <si>
+    <t>Simplify the rational expression: \( \frac{144m^6n^4}{12m^3n^2} \)</t>
+  </si>
+  <si>
+    <t>\(12mn^2\)</t>
+  </si>
+  <si>
+    <t>\(12m^3n\)</t>
+  </si>
+  <si>
+    <t>\(12m^2n^2\)</t>
+  </si>
+  <si>
+    <t>\(12m^3n^2\)</t>
+  </si>
+  <si>
+    <t>Simplify by dividing the coefficients and using the properties of exponents:\( \frac{144m^6n^4}{12m^3n^2} = \frac{144}{12} \cdot \frac{m^6}{m^3} \cdot \frac{n^4}{n^2} \)= \( 12 \cdot m^{3} \cdot n^{2} = 12m^3n^2 \)</t>
+  </si>
+  <si>
+    <t>RN_90</t>
+  </si>
+  <si>
+    <t>Simplify the rational expression: \( \frac{90p^7q^5}{18p^4q^2} \)</t>
+  </si>
+  <si>
+    <t>\(5p^2q^3\)</t>
+  </si>
+  <si>
+    <t>\(5p^4q^3\)</t>
+  </si>
+  <si>
+    <t>\(5p^3q^3\)</t>
+  </si>
+  <si>
+    <t>\(5p^4q^2\)</t>
+  </si>
+  <si>
+    <t>Simplify the expression by dividing the coefficients and applying exponent rules: \( \frac{90p^7q^5}{18p^4q^2} = \frac{90}{18} \cdot \frac{p^7}{p^4} \cdot \frac{q^5}{q^2} \)= \( 5 \cdot p^{3} \cdot q^{3} = 5p^3q^3 \)</t>
+  </si>
+  <si>
+    <t>RN_91</t>
+  </si>
+  <si>
+    <t>Convert the rational number \( \frac{7}{4} \) into decimal form.</t>
+  </si>
+  <si>
+    <t>\(1.5\)</t>
+  </si>
+  <si>
+    <t>\(1.75\)</t>
+  </si>
+  <si>
+    <t>\(2.5\)</t>
   </si>
   <si>
     <t>\(1.25\)</t>
   </si>
   <si>
-    <t>\(1.5\)</t>
-  </si>
-  <si>
-    <t>\(1.75\)</t>
-  </si>
-  <si>
-    <t>\(1.375\)</t>
-  </si>
-  <si>
-    <t>The rational number \( \frac{11}{8} \) is approximately 1.375. On the number line between 1 and 2, it is closer to 1.375.</t>
-  </si>
-  <si>
-    <t>RN_55</t>
-  </si>
-  <si>
-    <t>Place the rational numbers \( \frac{2}{3}, \frac{4}{3}, \frac{5}{6}, -\frac{1}{3} \) on a number line between the integers -1 and 2.</t>
-  </si>
-  <si>
-    <t>\(-\frac{1}{3}, \frac{2}{3}, \frac{5}{6}, \frac{4}{3}\)</t>
-  </si>
-  <si>
-    <t>\( \frac{2}{3}, \frac{5}{6}, -\frac{1}{3}, \frac{4}{3}\)</t>
-  </si>
-  <si>
-    <t>\( \frac{4}{3}, \frac{5}{6}, \frac{2}{3}, -\frac{1}{3}\)</t>
-  </si>
-  <si>
-    <t>\( \frac{5}{6}, \frac{4}{3}, -\frac{1}{3}, \frac{2}{3}\)</t>
-  </si>
-  <si>
-    <t>First, identify the negative number \( -\frac{1}{3} \), which is less than 0. The remaining numbers are positive and should be ordered as \( \frac{2}{3}, \frac{5}{6}, \frac{4}{3} \). Thus, the sequence is: \( -\frac{1}{3}, \frac{2}{3}, \frac{5}{6}, \frac{4}{3} \).</t>
-  </si>
-  <si>
-    <t>RN_56</t>
-  </si>
-  <si>
-    <t>Locate the rational numbers \( \frac{1}{4}, \frac{3}{4}, \frac{5}{4}, -\frac{1}{2} \) on a number line between the integers -2 and 2.</t>
-  </si>
-  <si>
-    <t>\( \frac{1}{4}, \frac{3}{4}, \frac{5}{4}, -\frac{1}{2}\)</t>
-  </si>
-  <si>
-    <t>\( \frac{1}{4}, -\frac{1}{2}, \frac{3}{4}, \frac{5}{4}\)</t>
-  </si>
-  <si>
-    <t>\(-\frac{1}{2}, \frac{1}{4}, \frac{3}{4}, \frac{5}{4}\)</t>
-  </si>
-  <si>
-    <t>\( \frac{5}{4}, \frac{3}{4}, \frac{1}{4}, -\frac{1}{2}\)</t>
-  </si>
-  <si>
-    <t>To locate the numbers, observe that \( -\frac{1}{2} \) is a negative number and lies to the left of 0, while \( \frac{1}{4}, \frac{3}{4}, \) and \( \frac{5}{4} \) are positive. Arrange them in increasing order: \( -\frac{1}{2}, \frac{1}{4}, \frac{3}{4}, \frac{5}{4} \).</t>
-  </si>
-  <si>
-    <t>RN_57</t>
-  </si>
-  <si>
-    <t>Order the following rational numbers and plot them on a number line: \(\frac{3}{4}, \frac{5}{6}, \frac{2}{3}, \frac{7}{8}\).</t>
-  </si>
-  <si>
-    <t>\(\frac{2}{3}, \frac{3}{4}, \frac{5}{6}, \frac{7}{8}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{3}{4}, \frac{2}{3}, \frac{5}{6}, \frac{7}{8}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{3}{4}, \frac{5}{6}, \frac{2}{3}, \frac{7}{8}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{2}{3}, \frac{5}{6}, \frac{3}{4}, \frac{7}{8}\)</t>
-  </si>
-  <si>
-    <t>Convert each fraction to a decimal or find a common denominator to compare: \(\frac{2}{3} = 0.666\), \(\frac{3}{4} = 0.75\), \(\frac{5}{6} = 0.833\), \(\frac{7}{8} = 0.875\). Therefore, the order from least to greatest is \(\frac{2}{3}, \frac{3}{4}, \frac{5}{6}, \frac{7}{8}\).</t>
-  </si>
-  <si>
-    <t>RN_58</t>
-  </si>
-  <si>
-    <t>Arrange the following fractions in ascending order: \(\frac{1}{2}, \frac{3}{5}, \frac{4}{9}, \frac{7}{10}\).</t>
-  </si>
-  <si>
-    <t>\(\frac{1}{2}, \frac{4}{9}, \frac{3}{5}, \frac{7}{10}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{1}{2}, \frac{3}{5}, \frac{4}{9}, \frac{7}{10}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{4}{9}, \frac{1}{2}, \frac{3}{5}, \frac{7}{10}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{4}{9}, \frac{3}{5}, \frac{1}{2}, \frac{7}{10}\)</t>
-  </si>
-  <si>
-    <t>Convert each fraction to a decimal or find a common denominator to compare: \(\frac{4}{9} = 0.444\), \(\frac{1}{2} = 0.5\), \(\frac{3}{5} = 0.6\), \(\frac{7}{10} = 0.7\). Therefore, the order from least to greatest is \(\frac{4}{9}, \frac{1}{2}, \frac{3}{5}, \frac{7}{10}\).</t>
-  </si>
-  <si>
-    <t>RN_59</t>
-  </si>
-  <si>
-    <t>Order these rational numbers: \(\frac{8}{15}, \frac{5}{12}, \frac{11}{20}, \frac{9}{14}\).</t>
-  </si>
-  <si>
-    <t>\(\frac{5}{12}, \frac{8}{15}, \frac{11}{20}, \frac{9}{14}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{5}{12}, \frac{11}{20}, \frac{8}{15}, \frac{9}{14}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{11}{20}, \frac{5}{12}, \frac{8}{15}, \frac{9}{14}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{8}{15}, \frac{9}{14}, \frac{5}{12}, \frac{11}{20}\)</t>
-  </si>
-  <si>
-    <t>Convert each fraction to a decimal or find a common denominator to compare: \(\frac{5}{12} = 0.416\), \(\frac{11}{20} = 0.55\), \(\frac{8}{15} = 0.533\), \(\frac{9}{14} = 0.642\). Therefore, the order from least to greatest is \(\frac{5}{12}, \frac{11}{20}, \frac{8}{15}, \frac{9}{14}\).</t>
-  </si>
-  <si>
-    <t>RN_60</t>
-  </si>
-  <si>
-    <t>Place these fractions in order from smallest to largest: \(\frac{13}{18}, \frac{7}{11}, \frac{5}{9}, \frac{3}{8}\).</t>
-  </si>
-  <si>
-    <t>\(\frac{3}{8}, \frac{5}{9}, \frac{13}{18}, \frac{7}{11}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{3}{8}, \frac{7}{11}, \frac{5}{9}, \frac{13}{18}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{5}{9}, \frac{3}{8}, \frac{7}{11}, \frac{13}{18}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{3}{8}, \frac{5}{9}, \frac{7}{11}, \frac{13}{18}\)</t>
-  </si>
-  <si>
-    <t>Convert each fraction to a decimal or find a common denominator to compare: \(\frac{3}{8} = 0.375\), \(\frac{5}{9} = 0.555\), \(\frac{7}{11} = 0.636\), \(\frac{13}{18} = 0.722\). Therefore, the order from least to greatest is \(\frac{3}{8}, \frac{5}{9}, \frac{7}{11}, \frac{13}{18}\).</t>
-  </si>
-  <si>
-    <t>RN_61</t>
-  </si>
-  <si>
-    <t>Sequence these fractions: \(\frac{3}{7}, \frac{6}{11}, \frac{4}{9}, \frac{5}{8}\).</t>
-  </si>
-  <si>
-    <t>\(\frac{3}{7}, \frac{4}{9}, \frac{5}{8}, \frac{6}{11}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{3}{7}, \frac{6}{11}, \frac{4}{9}, \frac{5}{8}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{4}{9}, \frac{3}{7}, \frac{6}{11}, \frac{5}{8}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{3}{7}, \frac{4}{9}, \frac{6}{11}, \frac{5}{8}\)</t>
-  </si>
-  <si>
-    <t>Convert each fraction to a decimal or find a common denominator to compare: \(\frac{3}{7} = 0.428\), \(\frac{4}{9} = 0.444\), \(\frac{6}{11} = 0.545\), \(\frac{5}{8} = 0.625\). Therefore, the order from least to greatest is \(\frac{3}{7}, \frac{4}{9}, \frac{6}{11}, \frac{5}{8}\).</t>
-  </si>
-  <si>
-    <t>RN_62</t>
-  </si>
-  <si>
-    <t>Convert the following rational numbers to like denominators: \( \frac{3}{4}, \frac{2}{3}, \frac{5}{6} \) and plot them on a number line.</t>
-  </si>
-  <si>
-    <t>\( \frac{9}{12}, \frac{8}{12}, \frac{10}{12} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{15}{12}, \frac{18}{12}, \frac{9}{12} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{10}{12}, \frac{15}{12}, \frac{7}{12} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{12}{9}, \frac{5}{9}, \frac{11}{9} \).</t>
-  </si>
-  <si>
-    <t>To convert these fractions to like denominators, we first find the least common denominator (LCD) of 4, 3, and 6, which is 12. Convert each fraction: \( \frac{3}{4} = \frac{9}{12}, \frac{2}{3} = \frac{8}{12}, \frac{5}{6} = \frac{10}{12} \). Therefore, with like denominators, the fractions are \( \frac{9}{12}, \frac{8}{12}, \frac{10}{12} \)</t>
-  </si>
-  <si>
-    <t>RN_63</t>
-  </si>
-  <si>
-    <t>Convert the following rational numbers to like denominators: \( \frac{7}{8}, \frac{11}{12}, \frac{5}{6} \) and plot them on a number line.</t>
-  </si>
-  <si>
-    <t>\( \frac{21}{24}, \frac{20}{24}, \frac{26}{24} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{21}{24}, \frac{22}{24}, \frac{20}{24} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{12}{24}, \frac{20}{24}, \frac{14}{24} \)</t>
-  </si>
-  <si>
-    <t>The least common denominator of 8, 12, and 6 is 24. Convert each fraction: \( \frac{7}{8} = \frac{21}{24}, \frac{11}{12} = \frac{22}{24}, \frac{5}{6} = \frac{20}{24} \). Therefore, with like denominators, the fractions are \( \frac{21}{24}, \frac{22}{24}, \frac{20}{24} \).</t>
-  </si>
-  <si>
-    <t>RN_64</t>
-  </si>
-  <si>
-    <t>Convert the following rational numbers to like denominators: \( \frac{1}{2}, \frac{3}{4}, \frac{5}{8} \) and plot them on a number line.</t>
-  </si>
-  <si>
-    <t>\( \frac{4}{16}, \frac{6}{16}, \frac{5}{16} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{5}{16}, \frac{6}{16}, \frac{5}{16} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{2}{4}, \frac{4}{4}, \frac{3}{4} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{4}{8}, \frac{6}{8}, \frac{5}{8} \)</t>
-  </si>
-  <si>
-    <t>The least common denominator of 2, 4, and 8 is 8. Convert each fraction: \( \frac{1}{2} = \frac{4}{8}, \frac{3}{4} = \frac{6}{8}, \frac{5}{8} = \frac{5}{8} \). Therefore, with like denominators, the fractions are \( \frac{4}{8}, \frac{6}{8}, \frac{5}{8} \).</t>
-  </si>
-  <si>
-    <t>RN_65</t>
-  </si>
-  <si>
-    <t>Convert the following rational numbers to like denominators: \( \frac{9}{10}, \frac{7}{5}, \frac{3}{2} \) and plot them on a number line.</t>
-  </si>
-  <si>
-    <t>\( \frac{9}{10}, \frac{12}{10}, \frac{15}{10} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{9}{10}, \frac{14}{10}, \frac{5}{10} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{9}{10}, \frac{4}{10}, \frac{15}{10} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{19}{10}, \frac{14}{10}, \frac{15}{10} \)</t>
-  </si>
-  <si>
-    <t>The least common denominator of 10, 5, and 2 is 10. Convert each fraction: \( \frac{9}{10} = \frac{9}{10}, \frac{7}{5} = \frac{14}{10}, \frac{3}{2} = \frac{15}{10} \). Therefore, with like denominators, the fractions are \( \frac{9}{10}, \frac{14}{10}, \frac{15}{10} \).</t>
-  </si>
-  <si>
-    <t>RN_66</t>
-  </si>
-  <si>
-    <t>Convert the following rational numbers to like denominators: \( \frac{3}{7}, \frac{5}{14}, \frac{2}{21} \) and plot them on a number line.</t>
-  </si>
-  <si>
-    <t>\( \frac{18}{42}, \frac{15}{42}, \frac{14}{42} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{8}{42}, \frac{15}{42}, \frac{4}{42} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{18}{42}, \frac{15}{42}, \frac{4}{42} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{18}{42}, \frac{5}{42}, \frac{4}{42} \)</t>
-  </si>
-  <si>
-    <t>The least common denominator of 7, 14, and 21 is 42. Convert each fraction: \( \frac{3}{7} = \frac{18}{42}, \frac{5}{14} = \frac{15}{42}, \frac{2}{21} = \frac{4}{42} \). Therefore, with like denominators, the fractions are \( \frac{18}{42}, \frac{15}{42}, \frac{4}{42} \).</t>
-  </si>
-  <si>
-    <t>RN_67</t>
-  </si>
-  <si>
-    <t>Place the following rational numbers on a number line: \( \frac{3}{4}, \frac{5}{6}, \frac{7}{8}, \frac{2}{3} \). Which one is closest to 1?</t>
-  </si>
-  <si>
-    <t>\( \frac{5}{6} \)</t>
-  </si>
-  <si>
-    <t>To find which number is closest to 1, we compare the decimal values: \( \frac{3}{4} = 0.75 \), \( \frac{5}{6} = 0.8333 \), \( \frac{7}{8} = 0.875 \), and \( \frac{2}{3} = 0.6667 \). The number \( \frac{7}{8} \) or 0.875 is closest to 1.</t>
-  </si>
-  <si>
-    <t>RN_68</t>
-  </si>
-  <si>
-    <t>Given the rational numbers \( \frac{9}{10}, \frac{4}{5}, \frac{11}{12}, \frac{5}{6} \), which one is the smallest?</t>
-  </si>
-  <si>
-    <t>\( \frac{9}{10} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{4}{5} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{11}{12} \)</t>
-  </si>
-  <si>
-    <t>Comparing the decimal values: \( \frac{9}{10} = 0.9 \), \( \frac{4}{5} = 0.8 \), \( \frac{11}{12} = 0.9167 \), \( \frac{5}{6} = 0.8333 \). The smallest value is \( \frac{4}{5} \) or 0.8.</t>
-  </si>
-  <si>
-    <t>RN_69</t>
-  </si>
-  <si>
-    <t>Identify the largest rational number among \( \frac{1}{2}, \frac{5}{9}, \frac{11}{20}, \frac{3}{5} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{11}{20} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{3}{5} \)</t>
-  </si>
-  <si>
-    <t>The decimal values are \( \frac{1}{2} = 0.5 \), \( \frac{5}{9} = 0.5556 \), \( \frac{11}{20} = 0.55 \), \( \frac{3}{5} = 0.6 \). Therefore, \( \frac{3}{5} \) or 0.6 is the largest.</t>
-  </si>
-  <si>
-    <t>RN_70</t>
-  </si>
-  <si>
-    <t>Which of the following rational numbers is closest to \( \frac{1}{3} \)? \( \frac{2}{7}, \frac{3}{8}, \frac{5}{16}, \frac{1}{4} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{2}{7} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{3}{8} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{5}{16} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{1}{4} \)</t>
-  </si>
-  <si>
-    <t>The decimal equivalents are \( \frac{2}{7} = 0.2857 \), \( \frac{3}{8} = 0.375 \), \( \frac{5}{16} = 0.3125 \), \( \frac{1}{4} = 0.25 \). The number closest to \( \frac{1}{3} \) or 0.3333 is \( \frac{5}{16} = 0.3125 \).</t>
-  </si>
-  <si>
-    <t>RN_71</t>
-  </si>
-  <si>
-    <t>Among the rational numbers \( \frac{6}{11}, \frac{7}{13}, \frac{8}{15}, \frac{5}{9} \), which is the second smallest?</t>
-  </si>
-  <si>
-    <t>\( \frac{6}{11} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{7}{13} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{8}{15} \)</t>
-  </si>
-  <si>
-    <t>Converting to decimals: \( \frac{6}{11} = 0.5455 \), \( \frac{7}{13} = 0.5385 \), \( \frac{8}{15} = 0.5333 \), \( \frac{5}{9} = 0.5556 \). The smallest is \( \frac{8}{15} \) and the second smallest is \( \frac{7}{13} \) or 0.5385.</t>
-  </si>
-  <si>
-    <t>RN_72</t>
-  </si>
-  <si>
-    <t>Find the midpoint between the rational numbers \(\frac{3}{4}\) and \(\frac{5}{2}\) and plot it on a number line.</t>
-  </si>
-  <si>
-    <t>\(\frac{7}{8}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{13}{8}\)</t>
-  </si>
-  <si>
-    <t>To find the midpoint, use the formula for the midpoint of two numbers, \(\frac{a+b}{2}\). Here, \(a = \frac{3}{4}\) and \(b = \frac{5}{2}\). First, convert \(\frac{5}{2}\) to \(\frac{10}{4}\). Then, \(\text{Midpoint} = \frac{\frac{3}{4} + \frac{10}{4}}{2} = \frac{\frac{13}{4}}{2} = \frac{13}{8}\).</t>
-  </si>
-  <si>
-    <t>RN_73</t>
-  </si>
-  <si>
-    <t>Determine the midpoint of the rational numbers \(-\frac{7}{3}\) and \(\frac{4}{3}\). Plot this point on a number line.</t>
-  </si>
-  <si>
-    <t>\(-\frac{1}{3}\)</t>
-  </si>
-  <si>
-    <t>\(-\frac{1}{2}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{0}{1}\)</t>
-  </si>
-  <si>
-    <t>The midpoint is given by \(\frac{a+b}{2}\). Here, \(a = -\frac{7}{3}\) and \(b = \frac{4}{3}\). Thus, \(\text{Midpoint} = \frac{-\frac{7}{3} + \frac{4}{3}}{2} = \frac{-\frac{3}{3}}{2} = \frac{-1}{2}\).</t>
-  </si>
-  <si>
-    <t>RN_74</t>
-  </si>
-  <si>
-    <t>What is the midpoint between \(\frac{2}{5}\) and \(\frac{8}{5}\)? Plot your result on a number line.</t>
-  </si>
-  <si>
-    <t>\(\frac{6}{5}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{7}{5}\)</t>
-  </si>
-  <si>
-    <t>The midpoint is calculated as \(\frac{a+b}{2}\), where \(a = \frac{2}{5}\) and \(b\) = \(\frac{8}{5}\). Thus, \(\text{Midpoint} = \frac{\frac{2}{5} + \frac{8}{5}}{2} = \frac{\frac{10}{5}}{2} = \frac{5}{5} = 1\).</t>
-  </si>
-  <si>
-    <t>RN_75</t>
-  </si>
-  <si>
-    <t>Calculate and plot the midpoint of \(-\frac{9}{4}\) and \(-\frac{1}{2}\).</t>
-  </si>
-  <si>
-    <t>\(-\frac{11}{8}\)</t>
-  </si>
-  <si>
-    <t>\(-\frac{5}{8}\)</t>
-  </si>
-  <si>
-    <t>\(-\frac{7}{8}\)</t>
-  </si>
-  <si>
-    <t>\(-\frac{9}{8}\)</t>
-  </si>
-  <si>
-    <t>Using the midpoint formula, \(\frac{a+b}{2}\), where \(a = -\frac{9}{4}\) and \(b = -\frac{1}{2}\) (which is \(-\frac{2}{4}\)), calculate: \(\text{Midpoint} = \frac{-\frac{9}{4} + -\frac{2}{4}}{2} = \frac{-\frac{11}{4}}{2} = -\frac{11}{8}\).</t>
-  </si>
-  <si>
-    <t>RN_76</t>
-  </si>
-  <si>
-    <t>Find the midpoint between \(\frac{1}{3}\) and \(\frac{7}{6}\) and plot it on a number line.</t>
-  </si>
-  <si>
-    <t>\(\frac{3}{2}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{3}{4}\)</t>
-  </si>
-  <si>
-    <t>The midpoint is \(\frac{a+b}{2}\). Convert \(\frac{1}{3}\) to \(\frac{2}{6}\) and \(\frac{7}{6}\) remains the same. \(\text{Midpoint} = \frac{\frac{2}{6} + \frac{7}{6}}{2} = \frac{\frac{9}{6}}{2} = \frac{9}{12} = \frac{3}{4}\).</t>
-  </si>
-  <si>
-    <t>Sec_D</t>
-  </si>
-  <si>
-    <t>\(Section\;D\)</t>
-  </si>
-  <si>
-    <t>RATIONAL NUMBERS IN STANDARD FORM</t>
-  </si>
-  <si>
-    <t>Section D</t>
-  </si>
-  <si>
-    <t>RN_77</t>
-  </si>
-  <si>
-    <t>Express the rational number \(\frac{8}{12}\) in its standard form.</t>
-  </si>
-  <si>
-    <t>\(\frac{4}{6}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{8}{12}\)</t>
-  </si>
-  <si>
-    <t>The greatest common divisor of 8 and 12 is 4. Dividing both numerator and denominator by 4, we get \(\frac{8 \div 4}{12 \div 4} = \frac{2}{3}\).</t>
-  </si>
-  <si>
-    <t>RN_78</t>
-  </si>
-  <si>
-    <t>Express the rational number \(\frac{45}{60}\) in its standard form.</t>
-  </si>
-  <si>
-    <t>\(\frac{15}{20}\)</t>
-  </si>
-  <si>
-    <t>The greatest common divisor of 45 and 60 is 15. Dividing both numerator and denominator by 15, we get \(\frac{45 \div 15}{60 \div 15} = \frac{3}{4}\).</t>
-  </si>
-  <si>
-    <t>RN_79</t>
-  </si>
-  <si>
-    <t>Express the rational number \(\frac{14}{35}\) in its standard form.</t>
-  </si>
-  <si>
-    <t>\(\frac{4}{10}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{2}{5}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{7}{17}\)</t>
-  </si>
-  <si>
-    <t>The greatest common divisor of 14 and 35 is 7. Dividing both numerator and denominator by 7, we get \(\frac{14 \div 7}{35 \div 7} = \frac{2}{5}\).</t>
-  </si>
-  <si>
-    <t>RN_80</t>
-  </si>
-  <si>
-    <t>Express the rational number \(\frac{18}{27}\) in its standard form.</t>
-  </si>
-  <si>
-    <t>\(\frac{6}{9}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{18}{27}\)</t>
-  </si>
-  <si>
-    <t>The greatest common divisor of 18 and 27 is 9. Dividing both numerator and denominator by 9, we get \(\frac{18 \div 9}{27 \div 9} = \frac{2}{3}\).</t>
-  </si>
-  <si>
-    <t>RN_81</t>
-  </si>
-  <si>
-    <t>Express the rational number \(\frac{20}{50}\) in its standard form.</t>
-  </si>
-  <si>
-    <t>\(\frac{5}{10}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{10}{25}\)</t>
-  </si>
-  <si>
-    <t>The greatest common divisor of 20 and 50 is 10. Dividing both numerator and denominator by 10, we get \(\frac{20 \div 10}{50 \div 10} = \frac{2}{5}\).</t>
-  </si>
-  <si>
-    <t>RN_82</t>
-  </si>
-  <si>
-    <t>Simplify the rational number \(\frac{-45}{60}\) to its standard form.</t>
-  </si>
-  <si>
-    <t>\(\frac{-15}{20}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{-9}{12}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{-3}{4}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{-45}{60}\)</t>
-  </si>
-  <si>
-    <t>The greatest common divisor of 45 and 60 is 15. Divide both numerator and denominator by 15: \(\frac{-45}{60} = \frac{-3}{4}\).</t>
-  </si>
-  <si>
-    <t>RN_83</t>
-  </si>
-  <si>
-    <t>Simplify \(\frac{56}{-84}\) to its standard form.</t>
-  </si>
-  <si>
-    <t>\(\frac{-2}{3}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{-4}{6}\)</t>
-  </si>
-  <si>
-    <t>The greatest common divisor of 56 and 84 is 28. Divide both numerator and denominator by 28: \(\frac{56}{-84} = \frac{-2}{3}\).</t>
-  </si>
-  <si>
-    <t>RN_84</t>
-  </si>
-  <si>
-    <t>Simplify \(\frac{-36}{48}\) to its standard form.</t>
-  </si>
-  <si>
-    <t>\(\frac{-18}{24}\)</t>
-  </si>
-  <si>
-    <t>The greatest common divisor of 36 and 48 is 12. Divide both numerator and denominator by 12: \(\frac{-36}{48} = \frac{-3}{4}\).</t>
-  </si>
-  <si>
-    <t>RN_85</t>
-  </si>
-  <si>
-    <t>Simplify \(\frac{-72}{-96}\) to its standard form.</t>
-  </si>
-  <si>
-    <t>The greatest common divisor of 72 and 96 is 24. Divide both numerator and denominator by 24: \(\frac{-72}{-96} = \frac{3}{4}\).</t>
-  </si>
-  <si>
-    <t>RN_86</t>
-  </si>
-  <si>
-    <t>Simplify \(\frac{90}{-120}\) to its standard form.</t>
-  </si>
-  <si>
-    <t>The greatest common divisor of 90 and 120 is 30. Divide both numerator and denominator by 30: \(\frac{90}{-120} = \frac{-3}{4}\).</t>
-  </si>
-  <si>
-    <t>RN_87</t>
-  </si>
-  <si>
-    <t>Convert the improper fraction \( \frac{17}{5} \) to mixed fraction form.</t>
-  </si>
-  <si>
-    <t>3\( \frac{1}{2} \)</t>
-  </si>
-  <si>
-    <t>2\( \frac{7}{5} \)</t>
-  </si>
-  <si>
-    <t>3\( \frac{2}{5} \)</t>
-  </si>
-  <si>
-    <t>3\( \frac{3}{5} \)</t>
-  </si>
-  <si>
-    <t>Divide 17 by 5. The quotient is 3 and the remainder is 2, so \( \frac{17}{5} = 3\frac{2}{5} \).</t>
-  </si>
-  <si>
-    <t>RN_88</t>
-  </si>
-  <si>
-    <t>Convert the improper fraction \( \frac{22}{7} \) to mixed fraction form.</t>
-  </si>
-  <si>
-    <t>3\( \frac{1}{7} \)</t>
-  </si>
-  <si>
-    <t>3\( \frac{2}{7} \)</t>
-  </si>
-  <si>
-    <t>4\( \frac{1}{7} \)</t>
-  </si>
-  <si>
-    <t>3\( \frac{3}{7} \)</t>
-  </si>
-  <si>
-    <t>Divide 22 by 7. The quotient is 3 and the remainder is 1, so \( \frac{22}{7} = 3\frac{1}{7} \).</t>
-  </si>
-  <si>
-    <t>RN_89</t>
-  </si>
-  <si>
-    <t>Convert the improper fraction \( \frac{45}{8} \) to mixed fraction form.</t>
-  </si>
-  <si>
-    <t>5\( \frac{4}{8} \)</t>
-  </si>
-  <si>
-    <t>5\( \frac{5}{8} \)</t>
-  </si>
-  <si>
-    <t>6\( \frac{1}{8} \)</t>
-  </si>
-  <si>
-    <t>5\( \frac{1}{8} \)</t>
-  </si>
-  <si>
-    <t>Divide 45 by 8. The quotient is 5 and the remainder is 5, so \( \frac{45}{8} = 5\frac{5}{8} \).</t>
-  </si>
-  <si>
-    <t>RN_90</t>
-  </si>
-  <si>
-    <t>Convert the improper fraction \( \frac{29}{4} \) to mixed fraction form.</t>
-  </si>
-  <si>
-    <t>7\( \frac{1}{4} \)</t>
-  </si>
-  <si>
-    <t>6\( \frac{3}{4} \)</t>
-  </si>
-  <si>
-    <t>7\( \frac{1}{2} \)</t>
-  </si>
-  <si>
-    <t>Divide 29 by 4. The quotient is 7 and the remainder is 1, so \( \frac{29}{4} = 7\frac{1}{4} \).</t>
-  </si>
-  <si>
-    <t>RN_91</t>
-  </si>
-  <si>
-    <t>Convert the improper fraction \( \frac{56}{9} \) to mixed fraction form.</t>
-  </si>
-  <si>
-    <t>5\( \frac{5}{9} \)</t>
-  </si>
-  <si>
-    <t>6\( \frac{1}{9} \)</t>
-  </si>
-  <si>
-    <t>6\( \frac{2}{9} \)</t>
-  </si>
-  <si>
-    <t>5\( \frac{2}{9} \)</t>
-  </si>
-  <si>
-    <t>Divide 56 by 9. The quotient is 6 and the remainder is 2, so \( \frac{56}{9} = 6\frac{2}{9} \).</t>
+    <t>Dividing 7 by 4 gives 1.75, so \( \frac{7}{4} = 1.75 \).</t>
   </si>
   <si>
     <t>RN_92</t>
   </si>
   <si>
-    <t>Simplify the rational expression: \( \frac{120x^3y^2}{30xy} \)</t>
-  </si>
-  <si>
-    <t>\(4x^2y\)</t>
-  </si>
-  <si>
-    <t>\(4xy\)</t>
-  </si>
-  <si>
-    <t>\(4x^2\)</t>
-  </si>
-  <si>
-    <t>\(4xy^2\)</t>
-  </si>
-  <si>
-    <t>First, factor out the common terms in the numerator and denominator. The expression becomes: \( \frac{120x^3y^2}{30xy} = \frac{120}{30} \frac{x^3}{x} \times \frac{y^2}{y} \)= \( 4 \times x^2 \times y = 4x^2y \)times</t>
+    <t>Convert the mixed number \( 3 \frac{1}{2} \) into decimal form.</t>
+  </si>
+  <si>
+    <t>\(3.5\)</t>
+  </si>
+  <si>
+    <t>\(3.25\)</t>
+  </si>
+  <si>
+    <t>\(4.5\)</t>
+  </si>
+  <si>
+    <t>The mixed number \( 3 \frac{1}{2} \) is equivalent to \( 3 + \frac{1}{2} = 3.5 \).</t>
   </si>
   <si>
     <t>RN_93</t>
   </si>
   <si>
-    <t>Simplify the rational expression: \( \frac{75a^4b^3}{15a^2b} \)</t>
-  </si>
-  <si>
-    <t>\(5ab^2\)</t>
-  </si>
-  <si>
-    <t>\(5a^2b^2\)</t>
-  </si>
-  <si>
-    <t>\(5a^2b\)</t>
-  </si>
-  <si>
-    <t>\(5a^3b^2\)</t>
-  </si>
-  <si>
-    <t>Simplify by dividing the coefficients and subtracting the exponents of like bases: \( \frac{75a^4b^3}{15a^2b} = \frac{75}{15} \cdot \frac{a^4}{a^2} \cdot \frac{b^3}{b} \)= \( 5 \cdot a^{2} \cdot b^2 = 5a^2b^2 \)</t>
+    <t>Convert the rational number \( \frac{11}{5} \) into decimal form.</t>
+  </si>
+  <si>
+    <t>\(2.1\)</t>
+  </si>
+  <si>
+    <t>\(2.2\)</t>
+  </si>
+  <si>
+    <t>Dividing 11 by 5 gives 2.2, so \( \frac{11}{5} = 2.2 \).</t>
   </si>
   <si>
     <t>RN_94</t>
   </si>
   <si>
-    <t>Simplify the rational expression: \( \frac{56x^5y^3z^2}{8x^2y} \)</t>
-  </si>
-  <si>
-    <t>\(7x^3y^2z^2\)</t>
-  </si>
-  <si>
-    <t>\(7x^3y^2z\)</t>
-  </si>
-  <si>
-    <t>\(7x^3yz^2\)</t>
-  </si>
-  <si>
-    <t>\(7x^3yz\)</t>
-  </si>
-  <si>
-    <t>First, divide the coefficients and then the exponents of each variable: \( \frac{56x^5y^3z^2}{8x^2y} = \frac{56}{8} \cdot \frac{x^5}{x^2} \cdot \frac{y^3}{y} \cdot z^2 \)= \( 7 \cdot x^{3} \cdot y^{2} \cdot z^2 = 7x^3y^2z^2 \)</t>
+    <t>Convert the mixed number \( 5 \frac{3}{4} \) into decimal form.</t>
+  </si>
+  <si>
+    <t>\(5.25\)</t>
+  </si>
+  <si>
+    <t>\(5.75\)</t>
+  </si>
+  <si>
+    <t>\(6.25\)</t>
+  </si>
+  <si>
+    <t>\(4.75\)</t>
+  </si>
+  <si>
+    <t>The mixed number \( 5 \frac{3}{4} \) is equivalent to \( 5 + \frac{3}{4} = 5.75 \).</t>
   </si>
   <si>
     <t>RN_95</t>
   </si>
   <si>
-    <t>Simplify the rational expression: \( \frac{144m^6n^4}{12m^3n^2} \)</t>
-  </si>
-  <si>
-    <t>\(12mn^2\)</t>
-  </si>
-  <si>
-    <t>\(12m^3n\)</t>
-  </si>
-  <si>
-    <t>\(12m^2n^2\)</t>
-  </si>
-  <si>
-    <t>\(12m^3n^2\)</t>
-  </si>
-  <si>
-    <t>Simplify by dividing the coefficients and using the properties of exponents:\( \frac{144m^6n^4}{12m^3n^2} = \frac{144}{12} \cdot \frac{m^6}{m^3} \cdot \frac{n^4}{n^2} \)= \( 12 \cdot m^{3} \cdot n^{2} = 12m^3n^2 \)</t>
+    <t>Convert the rational number \( \frac{9}{2} \) into decimal form.</t>
+  </si>
+  <si>
+    <t>\(5.5\)</t>
+  </si>
+  <si>
+    <t>Dividing 9 by 2 gives 4.5, so \( \frac{9}{2} = 4.5 \).</t>
+  </si>
+  <si>
+    <t>Sec_E</t>
+  </si>
+  <si>
+    <t>\(Section\;E\)</t>
+  </si>
+  <si>
+    <t>COMPARISON OF RATIONAL NUMBERS</t>
+  </si>
+  <si>
+    <t>Section E</t>
   </si>
   <si>
     <t>RN_96</t>
   </si>
   <si>
-    <t>Simplify the rational expression: \( \frac{90p^7q^5}{18p^4q^2} \)</t>
-  </si>
-  <si>
-    <t>\(5p^2q^3\)</t>
-  </si>
-  <si>
-    <t>\(5p^4q^3\)</t>
-  </si>
-  <si>
-    <t>\(5p^3q^3\)</t>
-  </si>
-  <si>
-    <t>\(5p^4q^2\)</t>
-  </si>
-  <si>
-    <t>Simplify the expression by dividing the coefficients and applying exponent rules: \( \frac{90p^7q^5}{18p^4q^2} = \frac{90}{18} \cdot \frac{p^7}{p^4} \cdot \frac{q^5}{q^2} \)= \( 5 \cdot p^{3} \cdot q^{3} = 5p^3q^3 \)</t>
+    <t>Compare the rational numbers \( \frac{3}{4} \) and \( \frac{5}{6} \).</t>
+  </si>
+  <si>
+    <t>greater than</t>
+  </si>
+  <si>
+    <t>less than</t>
+  </si>
+  <si>
+    <t>equal to</t>
+  </si>
+  <si>
+    <t>cannot be determined</t>
+  </si>
+  <si>
+    <t>To compare \( \frac{3}{4} \) and \( \frac{5}{6} \), find a common denominator. The least common denominator of 4 and 6 is 12. Thus, \( \frac{3}{4} = \frac{9}{12} \) and \( \frac{5}{6} = \frac{10}{12} \). Since \( \frac{9}{12} &lt; \frac{10}{12} \), \( \frac{3}{4} \) is less than \( \frac{5}{6} \).</t>
   </si>
   <si>
     <t>RN_97</t>
   </si>
   <si>
-    <t>Convert the rational number \( \frac{7}{4} \) into decimal form.</t>
-  </si>
-  <si>
-    <t>\(2.5\)</t>
-  </si>
-  <si>
-    <t>Dividing 7 by 4 gives 1.75, so \( \frac{7}{4} = 1.75 \).</t>
+    <t>Compare the rational numbers \( \frac{7}{8} \) and \( \frac{14}{16} \).</t>
+  </si>
+  <si>
+    <t>Simplify \( \frac{14}{16} \) to \( \frac{7}{8} \). Since both fractions simplify to the same value, \( \frac{7}{8} \) is equal to \( \frac{14}{16} \).</t>
   </si>
   <si>
     <t>RN_98</t>
   </si>
   <si>
-    <t>Convert the mixed number \( 3 \frac{1}{2} \) into decimal form.</t>
-  </si>
-  <si>
-    <t>\(3.5\)</t>
-  </si>
-  <si>
-    <t>\(3.25\)</t>
-  </si>
-  <si>
-    <t>\(4.5\)</t>
-  </si>
-  <si>
-    <t>The mixed number \( 3 \frac{1}{2} \) is equivalent to \( 3 + \frac{1}{2} = 3.5 \).</t>
+    <t>Compare the rational numbers \( \frac{2}{3} \) and \( \frac{3}{5} \).</t>
+  </si>
+  <si>
+    <t>To compare \( \frac{2}{3} \) and \( \frac{3}{5} \), find a common denominator. The least common denominator of 3 and 5 is 15. Thus, \( \frac{2}{3} = \frac{10}{15} \) and \( \frac{3}{5} = \frac{9}{15} \). Since \( \frac{10}{15} &gt; \frac{9}{15} \), \( \frac{2}{3} \) is greater than \( \frac{3}{5} \).</t>
   </si>
   <si>
     <t>RN_99</t>
   </si>
   <si>
-    <t>Convert the rational number \( \frac{11}{5} \) into decimal form.</t>
-  </si>
-  <si>
-    <t>\(2.1\)</t>
-  </si>
-  <si>
-    <t>\(2.2\)</t>
-  </si>
-  <si>
-    <t>Dividing 11 by 5 gives 2.2, so \( \frac{11}{5} = 2.2 \).</t>
+    <t>Compare the rational numbers \( \frac{1}{2} \) and \( \frac{2}{4} \).</t>
+  </si>
+  <si>
+    <t>Simplify \( \frac{2}{4} \) to \( \frac{1}{2} \). Since both fractions simplify to the same value, \( \frac{1}{2} \) is equal to \( \frac{2}{4} \).</t>
   </si>
   <si>
     <t>RN_100</t>
   </si>
   <si>
-    <t>Convert the mixed number \( 5 \frac{3}{4} \) into decimal form.</t>
-  </si>
-  <si>
-    <t>\(5.25\)</t>
-  </si>
-  <si>
-    <t>\(5.75\)</t>
-  </si>
-  <si>
-    <t>\(6.25\)</t>
-  </si>
-  <si>
-    <t>\(4.75\)</t>
-  </si>
-  <si>
-    <t>The mixed number \( 5 \frac{3}{4} \) is equivalent to \( 5 + \frac{3}{4} = 5.75 \).</t>
+    <t>Compare the rational numbers \( \frac{5}{9} \) and \( \frac{4}{7} \).</t>
+  </si>
+  <si>
+    <t>To compare \( \frac{5}{9} \) and \( \frac{4}{7} \), find a common denominator. The least common denominator of 9 and 7 is 63. Thus, \( \frac{5}{9} = \frac{35}{63} \) and \( \frac{4}{7} = \frac{36}{63} \). Since \( \frac{35}{63} &lt; \frac{36}{63} \), \( \frac{5}{9} \) is less than \( \frac{4}{7} \).</t>
   </si>
   <si>
     <t>RN_101</t>
   </si>
   <si>
-    <t>Convert the rational number \( \frac{9}{2} \) into decimal form.</t>
-  </si>
-  <si>
-    <t>\(5.5\)</t>
-  </si>
-  <si>
-    <t>Dividing 9 by 2 gives 4.5, so \( \frac{9}{2} = 4.5 \).</t>
-  </si>
-  <si>
-    <t>Sec_E</t>
-  </si>
-  <si>
-    <t>\(Section\;E\)</t>
-  </si>
-  <si>
-    <t>COMPARISON OF RATIONAL NUMBERS</t>
-  </si>
-  <si>
-    <t>Section E</t>
+    <t>Arrange the following rational numbers in ascending order: \( \frac{3}{4}, \frac{2}{3}, \frac{5}{6}, \frac{1}{2} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{1}{2}, \frac{2}{3}, \frac{3}{4}, \frac{5}{6} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{1}{2}, \frac{3}{4}, \frac{2}{3}, \frac{5}{6} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{1}{2}, \frac{2}{3}, \frac{5}{6}, \frac{3}{4} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{1}{2}, \frac{5}{6}, \frac{2}{3}, \frac{3}{4} \)</t>
+  </si>
+  <si>
+    <t>Convert all fractions to a common denominator, which is 12. We have \( \frac{3}{4} = \frac{9}{12}, \frac{2}{3} = \frac{8}{12}, \frac{5}{6} = \frac{10}{12}, \frac{1}{2} = \frac{6}{12} \). Arranging them gives \( \frac{1}{2}, \frac{2}{3}, \frac{3}{4}, \frac{5}{6} \).</t>
   </si>
   <si>
     <t>RN_102</t>
   </si>
   <si>
-    <t>Compare the rational numbers \( \frac{3}{4} \) and \( \frac{5}{6} \).</t>
-  </si>
-  <si>
-    <t>greater than</t>
-  </si>
-  <si>
-    <t>less than</t>
-  </si>
-  <si>
-    <t>equal to</t>
-  </si>
-  <si>
-    <t>cannot be determined</t>
-  </si>
-  <si>
-    <t>To compare \( \frac{3}{4} \) and \( \frac{5}{6} \), find a common denominator. The least common denominator of 4 and 6 is 12. Thus, \( \frac{3}{4} = \frac{9}{12} \) and \( \frac{5}{6} = \frac{10}{12} \). Since \( \frac{9}{12} &lt; \frac{10}{12} \), \( \frac{3}{4} \) is less than \( \frac{5}{6} \).</t>
+    <t>Arrange the following rational numbers in ascending order: \( \frac{1}{3}, \frac{3}{8}, \frac{2}{5}, \frac{4}{9} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{1}{3}, \frac{2}{5}, \frac{3}{8}, \frac{4}{9} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{3}{8}, \frac{1}{3}, \frac{4}{9}, \frac{2}{5} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{1}{3}, \frac{3}{8}, \frac{2}{5}, \frac{4}{9} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{3}{8}, \frac{1}{3}, \frac{2}{5}, \frac{4}{9} \)</t>
+  </si>
+  <si>
+    <t>Convert all fractions to a common denominator, which is 360. We have \( \frac{1}{3} = \frac{120}{360}, \frac{3}{8} = \frac{135}{360}, \frac{2}{5} = \frac{144}{360}, \frac{4}{9} = \frac{160}{360} \). Arranging them gives \( \frac{1}{3}, \frac{3}{8}, \frac{2}{5}, \frac{4}{9} \).</t>
   </si>
   <si>
     <t>RN_103</t>
   </si>
   <si>
-    <t>Compare the rational numbers \( \frac{7}{8} \) and \( \frac{14}{16} \).</t>
-  </si>
-  <si>
-    <t>Simplify \( \frac{14}{16} \) to \( \frac{7}{8} \). Since both fractions simplify to the same value, \( \frac{7}{8} \) is equal to \( \frac{14}{16} \).</t>
+    <t>Arrange the following rational numbers in ascending order: \( \frac{11}{12}, \frac{7}{10}, \frac{5}{8}, \frac{9}{11} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{5}{8}, \frac{7}{10}, \frac{9}{11}, \frac{11}{12} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{5}{8}, \frac{9}{11}, \frac{7}{10}, \frac{11}{12} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{7}{10}, \frac{5}{8}, \frac{9}{11}, \frac{11}{12} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{7}{10}, \frac{9}{11}, \frac{5}{8}, \frac{11}{12} \)</t>
+  </si>
+  <si>
+    <t>Convert all fractions to a common denominator, which is 1320. We have \( \frac{11}{12} = \frac{1210}{1320}, \frac{7}{10} = \frac{924}{1320}, \frac{5}{8} = \frac{825}{1320}, \frac{9}{11} = \frac{1080}{1320} \). Arranging them gives \( \frac{5}{8}, \frac{7}{10}, \frac{9}{11}, \frac{11}{12} \).</t>
   </si>
   <si>
     <t>RN_104</t>
   </si>
   <si>
-    <t>Compare the rational numbers \( \frac{2}{3} \) and \( \frac{3}{5} \).</t>
-  </si>
-  <si>
-    <t>To compare \( \frac{2}{3} \) and \( \frac{3}{5} \), find a common denominator. The least common denominator of 3 and 5 is 15. Thus, \( \frac{2}{3} = \frac{10}{15} \) and \( \frac{3}{5} = \frac{9}{15} \). Since \( \frac{10}{15} &gt; \frac{9}{15} \), \( \frac{2}{3} \) is greater than \( \frac{3}{5} \).</t>
+    <t>Arrange the following rational numbers in descending order: \( \frac{4}{5}, \frac{7}{9}, \frac{3}{4}, \frac{5}{6} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{4}{5}, \frac{5}{6}, \frac{7}{9}, \frac{3}{4} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{4}{5}, \frac{7}{9}, \frac{5}{6}, \frac{3}{4} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{5}{6}, \frac{4}{5}, \frac{7}{9}, \frac{3}{4} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{5}{6}, \frac{7}{9}, \frac{4}{5}, \frac{3}{4} \)</t>
+  </si>
+  <si>
+    <t>Convert all fractions to a common denominator, which is 180. We have \( \frac{4}{5} = \frac{144}{180}, \frac{7}{9} = \frac{140}{180}, \frac{3}{4} = \frac{135}{180}, \frac{5}{6} = \frac{150}{180} \). Arranging them gives \( \frac{4}{5}, \frac{5}{6}, \frac{7}{9}, \frac{3}{4} \).</t>
   </si>
   <si>
     <t>RN_105</t>
   </si>
   <si>
-    <t>Compare the rational numbers \( \frac{1}{2} \) and \( \frac{2}{4} \).</t>
-  </si>
-  <si>
-    <t>Simplify \( \frac{2}{4} \) to \( \frac{1}{2} \). Since both fractions simplify to the same value, \( \frac{1}{2} \) is equal to \( \frac{2}{4} \).</t>
+    <t>Arrange the following rational numbers in ascending order: \( \frac{3}{4}, \frac{5}{6}, \frac{2}{3}, \frac{7}{8} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{2}{3}, \frac{3}{4}, \frac{5}{6}, \frac{7}{8} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{3}{4}, \frac{2}{3}, \frac{7}{8}, \frac{5}{6} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{3}{4}, \frac{7}{8}, \frac{2}{3}, \frac{5}{6} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{2}{3}, \frac{5}{6}, \frac{3}{4}, \frac{7}{8} \)</t>
+  </si>
+  <si>
+    <t>To arrange the fractions in ascending order, convert them to a common denominator or compare their decimal equivalents. Decimal equivalents are \( \frac{3}{4} = 0.75 \), \( \frac{5}{6} \approx 0.833 \), \( \frac{2}{3} \approx 0.667 \), \( \frac{7}{8} = 0.875 \). So, the ascending order is \( \frac{2}{3}, \frac{3}{4}, \frac{5}{6}, \frac{7}{8} \).</t>
   </si>
   <si>
     <t>RN_106</t>
   </si>
   <si>
-    <t>Compare the rational numbers \( \frac{5}{9} \) and \( \frac{4}{7} \).</t>
-  </si>
-  <si>
-    <t>To compare \( \frac{5}{9} \) and \( \frac{4}{7} \), find a common denominator. The least common denominator of 9 and 7 is 63. Thus, \( \frac{5}{9} = \frac{35}{63} \) and \( \frac{4}{7} = \frac{36}{63} \). Since \( \frac{35}{63} &lt; \frac{36}{63} \), \( \frac{5}{9} \) is less than \( \frac{4}{7} \).</t>
+    <t>Arrange the following rational numbers in descending order: \( \frac{7}{10}, \frac{4}{5}, \frac{9}{10}, \frac{3}{5} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{4}{5}, \frac{7}{10}, \frac{9}{10}, \frac{3}{5} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{9}{10}, \frac{4}{5}, \frac{7}{10}, \frac{3}{5} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{9}{10}, \frac{7}{10}, \frac{4}{5}, \frac{3}{5} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{9}{10}, \frac{4}{5}, \frac{3}{5}, \frac{7}{10} \)</t>
+  </si>
+  <si>
+    <t>To arrange the fractions in descending order, convert them to a common denominator or compare their decimal equivalents. Decimal equivalents are \( \frac{7}{10} = 0.7 \), \( \frac{4}{5} = 0.8 \), \( \frac{9}{10} = 0.9 \), \( \frac{3}{5} = 0.6 \). So, the descending order is \( \frac{9}{10}, \frac{4}{5}, \frac{7}{10}, \frac{3}{5} \).</t>
   </si>
   <si>
     <t>RN_107</t>
   </si>
   <si>
-    <t>Arrange the following rational numbers in ascending order: \( \frac{3}{4}, \frac{2}{3}, \frac{5}{6}, \frac{1}{2} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{1}{2}, \frac{2}{3}, \frac{3}{4}, \frac{5}{6} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{1}{2}, \frac{3}{4}, \frac{2}{3}, \frac{5}{6} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{1}{2}, \frac{2}{3}, \frac{5}{6}, \frac{3}{4} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{1}{2}, \frac{5}{6}, \frac{2}{3}, \frac{3}{4} \)</t>
-  </si>
-  <si>
-    <t>Convert all fractions to a common denominator, which is 12. We have \( \frac{3}{4} = \frac{9}{12}, \frac{2}{3} = \frac{8}{12}, \frac{5}{6} = \frac{10}{12}, \frac{1}{2} = \frac{6}{12} \). Arranging them gives \( \frac{1}{2}, \frac{2}{3}, \frac{3}{4}, \frac{5}{6} \).</t>
+    <t>Compare the rational numbers \(\frac{3}{4}\) and \(\frac{5}{6}\). Find their least common denominator first and then compare.</t>
+  </si>
+  <si>
+    <t>\(\frac{9}{12} &lt; \frac{10}{12}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{12}{18} &gt; \frac{15}{18}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{18}{24} = \frac{20}{24}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{15}{24} &gt; \frac{20}{24}\)</t>
+  </si>
+  <si>
+    <t>The least common denominator of 4 and 6 is 12. Convert \(\frac{3}{4}\) to \(\frac{9}{12}\) and \(\frac{5}{6}\) to \(\frac{10}{12}\). Since 9 &lt; 10, \(\frac{9}{12} &lt; \frac{10}{12}\).</t>
   </si>
   <si>
     <t>RN_108</t>
   </si>
   <si>
-    <t>Arrange the following rational numbers in ascending order: \( \frac{1}{3}, \frac{3}{8}, \frac{2}{5}, \frac{4}{9} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{1}{3}, \frac{2}{5}, \frac{3}{8}, \frac{4}{9} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{3}{8}, \frac{1}{3}, \frac{4}{9}, \frac{2}{5} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{1}{3}, \frac{3}{8}, \frac{2}{5}, \frac{4}{9} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{3}{8}, \frac{1}{3}, \frac{2}{5}, \frac{4}{9} \)</t>
-  </si>
-  <si>
-    <t>Convert all fractions to a common denominator, which is 360. We have \( \frac{1}{3} = \frac{120}{360}, \frac{3}{8} = \frac{135}{360}, \frac{2}{5} = \frac{144}{360}, \frac{4}{9} = \frac{160}{360} \). Arranging them gives \( \frac{1}{3}, \frac{3}{8}, \frac{2}{5}, \frac{4}{9} \).</t>
+    <t>Compare the rational numbers \(\frac{7}{8}\) and \(\frac{5}{12}\). Find their least common denominator first.</t>
+  </si>
+  <si>
+    <t>\(\frac{21}{24} &gt; \frac{10}{24}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{35}{48} &lt; \frac{20}{48}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{42}{48} &gt; \frac{20}{48}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{28}{36} = \frac{15}{36}\)</t>
+  </si>
+  <si>
+    <t>The least common denominator of 8 and 12 is 48. Convert \(\frac{7}{8}\) to \(\frac{42}{48}\) and \(\frac{5}{12}\) to \(\frac{20}{48}\). Since 42 &gt; 20, \(\frac{42}{48} &gt; \frac{20}{48}\).</t>
   </si>
   <si>
     <t>RN_109</t>
   </si>
   <si>
-    <t>Arrange the following rational numbers in ascending order: \( \frac{11}{12}, \frac{7}{10}, \frac{5}{8}, \frac{9}{11} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{5}{8}, \frac{7}{10}, \frac{9}{11}, \frac{11}{12} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{5}{8}, \frac{9}{11}, \frac{7}{10}, \frac{11}{12} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{7}{10}, \frac{5}{8}, \frac{9}{11}, \frac{11}{12} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{7}{10}, \frac{9}{11}, \frac{5}{8}, \frac{11}{12} \)</t>
-  </si>
-  <si>
-    <t>Convert all fractions to a common denominator, which is 1320. We have \( \frac{11}{12} = \frac{1210}{1320}, \frac{7}{10} = \frac{924}{1320}, \frac{5}{8} = \frac{825}{1320}, \frac{9}{11} = \frac{1080}{1320} \). Arranging them gives \( \frac{5}{8}, \frac{7}{10}, \frac{9}{11}, \frac{11}{12} \).</t>
+    <t>Compare the rational numbers \(\frac{2}{3}\) and \(\frac{4}{5}\). Find their least common denominator first.</t>
+  </si>
+  <si>
+    <t>\(\frac{10}{15} &lt; \frac{12}{15}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{8}{15} &gt; \frac{12}{15}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{6}{10} = \frac{8}{10}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{12}{20} &gt; \frac{16}{20}\)</t>
+  </si>
+  <si>
+    <t>The least common denominator of 3 and 5 is 15. Convert \(\frac{2}{3}\) to \(\frac{10}{15}\) and \(\frac{4}{5}\) to \(\frac{12}{15}\). Since 10 &lt; 12, \(\frac{10}{15} &lt; \frac{12}{15}\).</t>
   </si>
   <si>
     <t>RN_110</t>
   </si>
   <si>
-    <t>Arrange the following rational numbers in descending order: \( \frac{4}{5}, \frac{7}{9}, \frac{3}{4}, \frac{5}{6} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{4}{5}, \frac{5}{6}, \frac{7}{9}, \frac{3}{4} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{4}{5}, \frac{7}{9}, \frac{5}{6}, \frac{3}{4} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{5}{6}, \frac{4}{5}, \frac{7}{9}, \frac{3}{4} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{5}{6}, \frac{7}{9}, \frac{4}{5}, \frac{3}{4} \)</t>
-  </si>
-  <si>
-    <t>Convert all fractions to a common denominator, which is 180. We have \( \frac{4}{5} = \frac{144}{180}, \frac{7}{9} = \frac{140}{180}, \frac{3}{4} = \frac{135}{180}, \frac{5}{6} = \frac{150}{180} \). Arranging them gives \( \frac{4}{5}, \frac{5}{6}, \frac{7}{9}, \frac{3}{4} \).</t>
+    <t>Compare the rational numbers \(\frac{5}{9}\) and \(\frac{7}{12}\). Find their least common denominator first.</t>
+  </si>
+  <si>
+    <t>\(\frac{30}{36} = \frac{28}{36}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{35}{54} &gt; \frac{42}{54}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{20}{36} &lt; \frac{21}{36}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{15}{18} &gt; \frac{14}{18}\)</t>
+  </si>
+  <si>
+    <t>The least common denominator of 9 and 12 is 36. Convert \(\frac{5}{9}\) to \(\frac{20}{36}\) and \(\frac{7}{12}\) to \(\frac{21}{36}\). Since 20 &lt; 21, \(\frac{20}{36} &lt; \frac{21}{36}\).</t>
   </si>
   <si>
     <t>RN_111</t>
   </si>
   <si>
-    <t>Arrange the following rational numbers in ascending order: \( \frac{3}{4}, \frac{5}{6}, \frac{2}{3}, \frac{7}{8} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{2}{3}, \frac{3}{4}, \frac{5}{6}, \frac{7}{8} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{3}{4}, \frac{2}{3}, \frac{7}{8}, \frac{5}{6} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{3}{4}, \frac{7}{8}, \frac{2}{3}, \frac{5}{6} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{2}{3}, \frac{5}{6}, \frac{3}{4}, \frac{7}{8} \)</t>
-  </si>
-  <si>
-    <t>To arrange the fractions in ascending order, convert them to a common denominator or compare their decimal equivalents. Decimal equivalents are \( \frac{3}{4} = 0.75 \), \( \frac{5}{6} \approx 0.833 \), \( \frac{2}{3} \approx 0.667 \), \( \frac{7}{8} = 0.875 \). So, the ascending order is \( \frac{2}{3}, \frac{3}{4}, \frac{5}{6}, \frac{7}{8} \).</t>
+    <t>Convert the mixed number \(3\frac{2}{5}\) into a complex fraction and compare it to \(\frac{17}{5}\). Which is greater?</t>
+  </si>
+  <si>
+    <t>\(\frac{17}{5}\)</t>
+  </si>
+  <si>
+    <t>\(3\frac{2}{5}\)</t>
+  </si>
+  <si>
+    <t>Both are equal</t>
+  </si>
+  <si>
+    <t>To convert \(3\frac{2}{5}\) into an improper fraction, multiply the whole number 3 by the denominator 5, which gives 15, and add the numerator 2, giving a total of 17. Thus, \(3\frac{2}{5} = \frac{17}{5}\). Both fractions are equal.</t>
   </si>
   <si>
     <t>RN_112</t>
   </si>
   <si>
-    <t>Arrange the following rational numbers in descending order: \( \frac{7}{10}, \frac{4}{5}, \frac{9}{10}, \frac{3}{5} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{4}{5}, \frac{7}{10}, \frac{9}{10}, \frac{3}{5} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{9}{10}, \frac{4}{5}, \frac{7}{10}, \frac{3}{5} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{9}{10}, \frac{7}{10}, \frac{4}{5}, \frac{3}{5} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{9}{10}, \frac{4}{5}, \frac{3}{5}, \frac{7}{10} \)</t>
-  </si>
-  <si>
-    <t>To arrange the fractions in descending order, convert them to a common denominator or compare their decimal equivalents. Decimal equivalents are \( \frac{7}{10} = 0.7 \), \( \frac{4}{5} = 0.8 \), \( \frac{9}{10} = 0.9 \), \( \frac{3}{5} = 0.6 \). So, the descending order is \( \frac{9}{10}, \frac{4}{5}, \frac{7}{10}, \frac{3}{5} \).</t>
+    <t>Which is greater: \(2\frac{3}{4}\) or \(\frac{11}{4}\)?</t>
+  </si>
+  <si>
+    <t>\(2\frac{3}{4}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{11}{4}\)</t>
+  </si>
+  <si>
+    <t>First, convert \(2\frac{3}{4}\) into a complex fraction. Multiply the whole number 2 by the denominator 4 to get 8, then add the numerator 3 to get a total of 11. Thus, \(2\frac{3}{4} = \frac{11}{4}\). Both fractions are equal.</t>
   </si>
   <si>
     <t>RN_113</t>
   </si>
   <si>
-    <t>Compare the rational numbers \(\frac{3}{4}\) and \(\frac{5}{6}\). Find their least common denominator first and then compare.</t>
-  </si>
-  <si>
-    <t>\(\frac{9}{12} &lt; \frac{10}{12}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{12}{18} &gt; \frac{15}{18}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{18}{24} = \frac{20}{24}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{15}{24} &gt; \frac{20}{24}\)</t>
-  </si>
-  <si>
-    <t>The least common denominator of 4 and 6 is 12. Convert \(\frac{3}{4}\) to \(\frac{9}{12}\) and \(\frac{5}{6}\) to \(\frac{10}{12}\). Since 9 &lt; 10, \(\frac{9}{12} &lt; \frac{10}{12}\).</t>
+    <t>Convert \(4\frac{1}{3}\) into an improper fraction and compare it with \(\frac{16}{3}\). Which is smaller?</t>
+  </si>
+  <si>
+    <t>\(4\frac{1}{3}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{16}{3}\)</t>
+  </si>
+  <si>
+    <t>First, convert \(4\frac{1}{3}\) into an improper fraction. Multiply the whole number 4 by the denominator 3 to get 12, then add the numerator 1 to get 13. Thus, \(\frac{13}{3}\) is smaller than \( \frac{16}{3}\).</t>
   </si>
   <si>
     <t>RN_114</t>
   </si>
   <si>
-    <t>Compare the rational numbers \(\frac{7}{8}\) and \(\frac{5}{12}\). Find their least common denominator first.</t>
-  </si>
-  <si>
-    <t>\(\frac{21}{24} &gt; \frac{10}{24}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{35}{48} &lt; \frac{20}{48}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{42}{48} &gt; \frac{20}{48}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{28}{36} = \frac{15}{36}\)</t>
-  </si>
-  <si>
-    <t>The least common denominator of 8 and 12 is 48. Convert \(\frac{7}{8}\) to \(\frac{42}{48}\) and \(\frac{5}{12}\) to \(\frac{20}{48}\). Since 42 &gt; 20, \(\frac{42}{48} &gt; \frac{20}{48}\).</t>
+    <t>Compare the complex fraction \(5\frac{3}{8}\) with \(\frac{43}{8}\). Which one is larger?</t>
+  </si>
+  <si>
+    <t>\(5\frac{3}{8}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{43}{8}\)</t>
+  </si>
+  <si>
+    <t>Convert \(5\frac{3}{8}\) into an improper fraction. Multiply the whole number 5 by the denominator 8 to get 40, then add the numerator 3 to get 43. Thus, \(5\frac{3}{8} = \frac{43}{8}\). Both fractions are equal.</t>
   </si>
   <si>
     <t>RN_115</t>
   </si>
   <si>
-    <t>Compare the rational numbers \(\frac{2}{3}\) and \(\frac{4}{5}\). Find their least common denominator first.</t>
-  </si>
-  <si>
-    <t>\(\frac{10}{15} &lt; \frac{12}{15}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{8}{15} &gt; \frac{12}{15}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{6}{10} = \frac{8}{10}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{12}{20} &gt; \frac{16}{20}\)</t>
-  </si>
-  <si>
-    <t>The least common denominator of 3 and 5 is 15. Convert \(\frac{2}{3}\) to \(\frac{10}{15}\) and \(\frac{4}{5}\) to \(\frac{12}{15}\). Since 10 &lt; 12, \(\frac{10}{15} &lt; \frac{12}{15}\).</t>
+    <t>Determine which is smaller: \(7\frac{5}{6}\) or \(\frac{47}{6}\)?</t>
+  </si>
+  <si>
+    <t>\(7\frac{5}{6}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{47}{6}\)</t>
+  </si>
+  <si>
+    <t>Convert \(7\frac{5}{6}\) into an improper fraction. Multiply the whole number 7 by the denominator 6 to get 42, then add the numerator 5 to get 47. Thus, \(7\frac{5}{6} = \frac{47}{6}\). Both fractions are equal.</t>
   </si>
   <si>
     <t>RN_116</t>
   </si>
   <si>
-    <t>Compare the rational numbers \(\frac{5}{9}\) and \(\frac{7}{12}\). Find their least common denominator first.</t>
-  </si>
-  <si>
-    <t>\(\frac{30}{36} = \frac{28}{36}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{35}{54} &gt; \frac{42}{54}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{20}{36} &lt; \frac{21}{36}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{15}{18} &gt; \frac{14}{18}\)</t>
-  </si>
-  <si>
-    <t>The least common denominator of 9 and 12 is 36. Convert \(\frac{5}{9}\) to \(\frac{20}{36}\) and \(\frac{7}{12}\) to \(\frac{21}{36}\). Since 20 &lt; 21, \(\frac{20}{36} &lt; \frac{21}{36}\).</t>
+    <t>Alice bought \( \frac{3}{4} \) kg of apples and Bob bought \( \frac{5}{6} \) kg of apples. Who bought more apples?</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Both bought the same amount</t>
+  </si>
+  <si>
+    <t>Convert the fractions to a common denominator. \( \frac{3}{4} = \frac{9}{12} \) and \( \frac{5}{6} = \frac{10}{12} \). Since \( \frac{10}{12} &gt; \frac{9}{12} \), Bob bought more apples.</t>
   </si>
   <si>
     <t>RN_117</t>
   </si>
   <si>
-    <t>Convert the mixed number \(3\frac{2}{5}\) into a complex fraction and compare it to \(\frac{17}{5}\). Which is greater?</t>
-  </si>
-  <si>
-    <t>\(\frac{17}{5}\)</t>
-  </si>
-  <si>
-    <t>\(3\frac{2}{5}\)</t>
-  </si>
-  <si>
-    <t>Both are equal</t>
-  </si>
-  <si>
-    <t>To convert \(3\frac{2}{5}\) into an improper fraction, multiply the whole number 3 by the denominator 5, which gives 15, and add the numerator 2, giving a total of 17. Thus, \(3\frac{2}{5} = \frac{17}{5}\). Both fractions are equal.</t>
+    <t>A recipe requires \( \frac{2}{3} \) cup of sugar. If Jamie only has \( \frac{3}{4} \) cup of sugar, does Jamie have enough sugar?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Exactly enough</t>
+  </si>
+  <si>
+    <t>Convert the fractions to a common denominator. \( \frac{2}{3} = \frac{8}{12} \) and \( \frac{3}{4} = \frac{9}{12} \). Since \( \frac{9}{12} &gt; \frac{8}{12} \), Jamie has enough sugar.</t>
   </si>
   <si>
     <t>RN_118</t>
   </si>
   <si>
-    <t>Which is greater: \(2\frac{3}{4}\) or \(\frac{11}{4}\)?</t>
-  </si>
-  <si>
-    <t>\(2\frac{3}{4}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{11}{4}\)</t>
-  </si>
-  <si>
-    <t>First, convert \(2\frac{3}{4}\) into a complex fraction. Multiply the whole number 2 by the denominator 4 to get 8, then add the numerator 3 to get a total of 11. Thus, \(2\frac{3}{4} = \frac{11}{4}\). Both fractions are equal.</t>
+    <t>A car travels \( \frac{7}{10} \) of a mile in one minute, while a bike travels \( \frac{2}{3} \) of a mile in the same time. Which is faster?</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Both are equally fast</t>
+  </si>
+  <si>
+    <t>Convert the fractions to a common denominator. \( \frac{7}{10} = \frac{21}{30} \) and \( \frac{2}{3} = \frac{20}{30} \). Since \( \frac{21}{30} &gt; \frac{20}{30} \), the car is faster.</t>
   </si>
   <si>
     <t>RN_119</t>
   </si>
   <si>
-    <t>Convert \(4\frac{1}{3}\) into an improper fraction and compare it with \(\frac{16}{3}\). Which is smaller?</t>
-  </si>
-  <si>
-    <t>\(4\frac{1}{3}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{16}{3}\)</t>
-  </si>
-  <si>
-    <t>First, convert \(4\frac{1}{3}\) into an improper fraction. Multiply the whole number 4 by the denominator 3 to get 12, then add the numerator 1 to get 13. Thus, \(\frac{13}{3}\) is smaller than \( \frac{16}{3}\).</t>
+    <t>John has \( \frac{5}{8} \) of a chocolate bar, and Maria has \( \frac{3}{4} \) of the same chocolate bar. Who has more chocolate?</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Both have the same amount</t>
+  </si>
+  <si>
+    <t>Convert the fractions to a common denominator. \( \frac{5}{8} = \frac{15}{24} \) and \( \frac{3}{4} = \frac{18}{24} \). Since \( \frac{18}{24} &gt; \frac{15}{24} \), Maria has more chocolate.</t>
   </si>
   <si>
     <t>RN_120</t>
   </si>
   <si>
-    <t>Compare the complex fraction \(5\frac{3}{8}\) with \(\frac{43}{8}\). Which one is larger?</t>
-  </si>
-  <si>
-    <t>\(5\frac{3}{8}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{43}{8}\)</t>
-  </si>
-  <si>
-    <t>Convert \(5\frac{3}{8}\) into an improper fraction. Multiply the whole number 5 by the denominator 8 to get 40, then add the numerator 3 to get 43. Thus, \(5\frac{3}{8} = \frac{43}{8}\). Both fractions are equal.</t>
+    <t>A container is filled with \( \frac{7}{9} \) liters of water, and another container is filled with \( \frac{5}{6} \) liters of water. Which container has more water?</t>
+  </si>
+  <si>
+    <t>First container</t>
+  </si>
+  <si>
+    <t>Second container</t>
+  </si>
+  <si>
+    <t>Convert the fractions to a common denominator. \( \frac{7}{9} = \frac{42}{54} \) and \( \frac{5}{6} = \frac{45}{54} \). Since \( \frac{45}{54} &gt; \frac{42}{54} \), the second container has more water.</t>
+  </si>
+  <si>
+    <t>Sec_F</t>
+  </si>
+  <si>
+    <t>\(Section\;F\)</t>
+  </si>
+  <si>
+    <t>RATIONAL NUMBERS BETWEEN TWO RATIONAL NUMBERS</t>
+  </si>
+  <si>
+    <t>Section F</t>
   </si>
   <si>
     <t>RN_121</t>
   </si>
   <si>
-    <t>Determine which is smaller: \(7\frac{5}{6}\) or \(\frac{47}{6}\)?</t>
-  </si>
-  <si>
-    <t>\(7\frac{5}{6}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{47}{6}\)</t>
-  </si>
-  <si>
-    <t>Convert \(7\frac{5}{6}\) into an improper fraction. Multiply the whole number 7 by the denominator 6 to get 42, then add the numerator 5 to get 47. Thus, \(7\frac{5}{6} = \frac{47}{6}\). Both fractions are equal.</t>
+    <t>Identify one rational number between \( \frac{1}{3} \) and \( \frac{1}{2} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{5}{12} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{2}{5} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{4}{9} \)</t>
+  </si>
+  <si>
+    <t>To find a rational number between \( \frac{1}{3} \) and \( \frac{1}{2} \), we convert them to a common denominator: \( \frac{1}{3} = \frac{4}{12} \) and \( \frac{1}{2} = \frac{6}{12} \). A rational number between them is \( \frac{5}{12} \), which is option 'a'.</t>
   </si>
   <si>
     <t>RN_122</t>
   </si>
   <si>
-    <t>Alice bought \( \frac{3}{4} \) kg of apples and Bob bought \( \frac{5}{6} \) kg of apples. Who bought more apples?</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Both bought the same amount</t>
-  </si>
-  <si>
-    <t>Convert the fractions to a common denominator. \( \frac{3}{4} = \frac{9}{12} \) and \( \frac{5}{6} = \frac{10}{12} \). Since \( \frac{10}{12} &gt; \frac{9}{12} \), Bob bought more apples.</t>
+    <t>Identify one rational number between \( \frac{3}{4} \) and \( \frac{5}{6} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{19}{24} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{11}{15} \)</t>
+  </si>
+  <si>
+    <t>Convert \( \frac{3}{4} \) and \( \frac{5}{6} \) to a common denominator: \( \frac{3}{4} = \frac{18}{24} \) and \( \frac{5}{6} = \frac{20}{24} \). A rational number between them is \( \frac{19}{24} \), which is option 'c'.</t>
   </si>
   <si>
     <t>RN_123</t>
   </si>
   <si>
-    <t>A recipe requires \( \frac{2}{3} \) cup of sugar. If Jamie only has \( \frac{3}{4} \) cup of sugar, does Jamie have enough sugar?</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Exactly enough</t>
-  </si>
-  <si>
-    <t>Convert the fractions to a common denominator. \( \frac{2}{3} = \frac{8}{12} \) and \( \frac{3}{4} = \frac{9}{12} \). Since \( \frac{9}{12} &gt; \frac{8}{12} \), Jamie has enough sugar.</t>
+    <t>Identify one rational number between \( \frac{2}{5} \) and \( \frac{3}{4} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{13}{20} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{7}{10} \)</t>
+  </si>
+  <si>
+    <t>Convert \( \frac{2}{5} \) and \( \frac{3}{4} \) to a common denominator: \( \frac{2}{5} = \frac{8}{20} \) and \( \frac{3}{4} = \frac{15}{20} \). A rational number between them is \( \frac{11}{20} \) or \( \frac{13}{20} \), but \( \frac{7}{10} = \frac{14}{20} \), which is also between them, making option 'd' correct.</t>
   </si>
   <si>
     <t>RN_124</t>
   </si>
   <si>
-    <t>A car travels \( \frac{7}{10} \) of a mile in one minute, while a bike travels \( \frac{2}{3} \) of a mile in the same time. Which is faster?</t>
-  </si>
-  <si>
-    <t>Bike</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>Both are equally fast</t>
-  </si>
-  <si>
-    <t>Convert the fractions to a common denominator. \( \frac{7}{10} = \frac{21}{30} \) and \( \frac{2}{3} = \frac{20}{30} \). Since \( \frac{21}{30} &gt; \frac{20}{30} \), the car is faster.</t>
+    <t>Identify one rational number between \( \frac{1}{6} \) and \( \frac{1}{3} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{3}{10} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{5}{18} \)</t>
+  </si>
+  <si>
+    <t>Convert \( \frac{1}{6} \) and \( \frac{1}{3} \) to a common denominator: \( \frac{1}{6} = \frac{3}{18} \) and \( \frac{1}{3} = \frac{6}{18} \). A rational number between them is \( \frac{5}{18} \), which is option 'c'.</t>
   </si>
   <si>
     <t>RN_125</t>
   </si>
   <si>
-    <t>John has \( \frac{5}{8} \) of a chocolate bar, and Maria has \( \frac{3}{4} \) of the same chocolate bar. Who has more chocolate?</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Both have the same amount</t>
-  </si>
-  <si>
-    <t>Convert the fractions to a common denominator. \( \frac{5}{8} = \frac{15}{24} \) and \( \frac{3}{4} = \frac{18}{24} \). Since \( \frac{18}{24} &gt; \frac{15}{24} \), Maria has more chocolate.</t>
+    <t>Identify one rational number between \( \frac{7}{9} \) and \( \frac{5}{6} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{13}{18} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{8}{11} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{14}{19} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{29}{36} \)</t>
+  </si>
+  <si>
+    <t>Convert \( \frac{7}{9} \) and \( \frac{5}{6} \) to a common denominator: \( \frac{7}{9} = \frac{28}{36} \) and \( \frac{5}{6} = \frac{30}{36} \). A rational number between them is \( \frac{29}{36} \), which is option 'd'.</t>
+  </si>
+  <si>
+    <t>Sec_G</t>
+  </si>
+  <si>
+    <t>\(Section\;G\)</t>
+  </si>
+  <si>
+    <t>OPERATIONS ON RATIONAL NUMBERS</t>
+  </si>
+  <si>
+    <t>Section G</t>
   </si>
   <si>
     <t>RN_126</t>
   </si>
   <si>
-    <t>A container is filled with \( \frac{7}{9} \) liters of water, and another container is filled with \( \frac{5}{6} \) liters of water. Which container has more water?</t>
-  </si>
-  <si>
-    <t>First container</t>
-  </si>
-  <si>
-    <t>Second container</t>
-  </si>
-  <si>
-    <t>Convert the fractions to a common denominator. \( \frac{7}{9} = \frac{42}{54} \) and \( \frac{5}{6} = \frac{45}{54} \). Since \( \frac{45}{54} &gt; \frac{42}{54} \), the second container has more water.</t>
-  </si>
-  <si>
-    <t>Sec_F</t>
-  </si>
-  <si>
-    <t>\(Section\;F\)</t>
-  </si>
-  <si>
-    <t>RATIONAL NUMBERS BETWEEN TWO RATIONAL NUMBERS</t>
-  </si>
-  <si>
-    <t>Section F</t>
+    <t>Find the sum of the rational numbers \( \frac{3}{7} \) and \( \frac{5}{7} \).</t>
+  </si>
+  <si>
+    <t>\(\frac{8}{7}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{2}{7}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{15}{7}\)</t>
+  </si>
+  <si>
+    <t>The sum of the numbers is \( \frac{3}{7} + \frac{5}{7} = \frac{8}{7} \).</t>
   </si>
   <si>
     <t>RN_127</t>
   </si>
   <si>
-    <t>Identify one rational number between \( \frac{1}{3} \) and \( \frac{1}{2} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{5}{12} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{2}{5} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{4}{9} \)</t>
-  </si>
-  <si>
-    <t>To find a rational number between \( \frac{1}{3} \) and \( \frac{1}{2} \), we convert them to a common denominator: \( \frac{1}{3} = \frac{4}{12} \) and \( \frac{1}{2} = \frac{6}{12} \). A rational number between them is \( \frac{5}{12} \), which is option 'a'.</t>
+    <t>Calculate the difference between \( \frac{9}{11} \) and \( \frac{4}{11} \).</t>
+  </si>
+  <si>
+    <t>\(\frac{3}{11}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{13}{11}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{5}{11}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{1}{11}\)</t>
+  </si>
+  <si>
+    <t>The difference is \( \frac{9}{11} - \frac{4}{11} = \frac{5}{11} \).</t>
   </si>
   <si>
     <t>RN_128</t>
   </si>
   <si>
-    <t>Identify one rational number between \( \frac{3}{4} \) and \( \frac{5}{6} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{19}{24} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{11}{15} \)</t>
-  </si>
-  <si>
-    <t>Convert \( \frac{3}{4} \) and \( \frac{5}{6} \) to a common denominator: \( \frac{3}{4} = \frac{18}{24} \) and \( \frac{5}{6} = \frac{20}{24} \). A rational number between them is \( \frac{19}{24} \), which is option 'c'.</t>
+    <t>Find the sum of \( \frac{3}{4} \) and \( \frac{2}{5} \) by converting to like denominators.</t>
+  </si>
+  <si>
+    <t>\( \frac{19}{20} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{23}{20} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{1}{20} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{7}{20} \)</t>
+  </si>
+  <si>
+    <t>To find the sum, first convert the fractions to have a common denominator: \( \frac{3}{4} = \frac{15}{20} \) and \( \frac{2}{5} = \frac{8}{20} \). Then, add the numerators: \( \frac{15}{20} + \frac{8}{20} = \frac{23}{20} \).</t>
   </si>
   <si>
     <t>RN_129</t>
   </si>
   <si>
-    <t>Identify one rational number between \( \frac{2}{5} \) and \( \frac{3}{4} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{13}{20} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{7}{10} \)</t>
-  </si>
-  <si>
-    <t>Convert \( \frac{2}{5} \) and \( \frac{3}{4} \) to a common denominator: \( \frac{2}{5} = \frac{8}{20} \) and \( \frac{3}{4} = \frac{15}{20} \). A rational number between them is \( \frac{11}{20} \) or \( \frac{13}{20} \), but \( \frac{7}{10} = \frac{14}{20} \), which is also between them, making option 'd' correct.</t>
+    <t>Find the product of \( \frac{7}{3} \) and \( \frac{5}{6} \) by converting to like denominators.</t>
+  </si>
+  <si>
+    <t>\( \frac{42}{9} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{35}{9} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{42}{18} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{35}{18} \)</t>
+  </si>
+  <si>
+    <t>To find the product, multiply the numerators and the denominators directly: \( \frac{7}{3} \times \frac{5}{6} = \frac{7 \times 5}{3 \times 6} = \frac{35}{18} \).</t>
   </si>
   <si>
     <t>RN_130</t>
   </si>
   <si>
-    <t>Identify one rational number between \( \frac{1}{6} \) and \( \frac{1}{3} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{3}{10} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{5}{18} \)</t>
-  </si>
-  <si>
-    <t>Convert \( \frac{1}{6} \) and \( \frac{1}{3} \) to a common denominator: \( \frac{1}{6} = \frac{3}{18} \) and \( \frac{1}{3} = \frac{6}{18} \). A rational number between them is \( \frac{5}{18} \), which is option 'c'.</t>
+    <t>Compute the sum of the following rational numbers: \( \frac{3}{4}, \frac{5}{6}, \frac{7}{12} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{9}{24}\)</t>
+  </si>
+  <si>
+    <t>\( \frac{13}{6}\)</t>
+  </si>
+  <si>
+    <t>\( \frac{51}{24}\)</t>
+  </si>
+  <si>
+    <t>\( \frac{62}{24}\)</t>
+  </si>
+  <si>
+    <t>To find the sum, first find a common denominator. The least common multiple of 4, 6, and 12 is 12. Convert each fraction: \( \frac{3}{4} = \frac{9}{12} \), \( \frac{5}{6} = \frac{10}{12} \), \( \frac{7}{12} = \frac{7}{12} \). Sum them up: \( \frac{9}{12} + \frac{10}{12} + \frac{7}{12} = \frac{26}{12} \). Simplifying \( \frac{26}{12} \) gives \( \frac{13}{6} \) .</t>
   </si>
   <si>
     <t>RN_131</t>
   </si>
   <si>
-    <t>Identify one rational number between \( \frac{7}{9} \) and \( \frac{5}{6} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{13}{18} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{8}{11} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{14}{19} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{29}{36} \)</t>
-  </si>
-  <si>
-    <t>Convert \( \frac{7}{9} \) and \( \frac{5}{6} \) to a common denominator: \( \frac{7}{9} = \frac{28}{36} \) and \( \frac{5}{6} = \frac{30}{36} \). A rational number between them is \( \frac{29}{36} \), which is option 'd'.</t>
-  </si>
-  <si>
-    <t>Sec_G</t>
-  </si>
-  <si>
-    <t>\(Section\;G\)</t>
-  </si>
-  <si>
-    <t>OPERATIONS ON RATIONAL NUMBERS</t>
-  </si>
-  <si>
-    <t>Section G</t>
+    <t>Compute the product of the following rational numbers: \( \frac{1}{2}, \frac{3}{5}, \frac{4}{7} \).</t>
+  </si>
+  <si>
+    <t>\( \frac{2}{35}\)</t>
+  </si>
+  <si>
+    <t>\( \frac{3}{35} \)</t>
+  </si>
+  <si>
+    <t>\( \frac{6}{35}\)</t>
+  </si>
+  <si>
+    <t>\( \frac{12}{35}\)</t>
+  </si>
+  <si>
+    <t>To find the product, multiply the numerators and the denominators: \( \frac{1 \times 3 \times 4}{2 \times 5 \times 7} = \frac{12}{70} \). Simplifying \( \frac{12}{70} \) gives \( \frac{6}{35} \).</t>
   </si>
   <si>
     <t>RN_132</t>
   </si>
   <si>
-    <t>Find the sum of the rational numbers \( \frac{3}{7} \) and \( \frac{5}{7} \).</t>
-  </si>
-  <si>
-    <t>\(\frac{8}{7}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{2}{7}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{15}{7}\)</t>
-  </si>
-  <si>
-    <t>The sum of the numbers is \( \frac{3}{7} + \frac{5}{7} = \frac{8}{7} \).</t>
+    <t>Calculate the sum of the fractions \( \frac{7}{4} \) and \( \frac{5}{6} \).</t>
+  </si>
+  <si>
+    <t>\(\frac{31}{12}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{19}{24}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{29}{12}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{17}{6}\)</t>
+  </si>
+  <si>
+    <t>First, find the least common denominator (LCD) of \(4\) and \(6\), which is \(12\). Convert \( \frac{7}{4} \) to an equivalent fraction with denominator \(12\): \( \frac{7 \times 3}{4 \times 3} = \frac{21}{12} \). Convert \( \frac{5}{6} \) to an equivalent fraction with denominator \(12\): \( \frac{5 \times 2}{6 \times 2} = \frac{10}{12} \). Add the two fractions: \( \frac{21}{12} + \frac{10}{12} = \frac{31}{12} \). Simplify if necessary: \( \frac{31}{12} \) is already in simplest form.</t>
   </si>
   <si>
     <t>RN_133</t>
   </si>
   <si>
-    <t>Calculate the difference between \( \frac{9}{11} \) and \( \frac{4}{11} \).</t>
-  </si>
-  <si>
-    <t>\(\frac{3}{11}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{13}{11}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{5}{11}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{1}{11}\)</t>
-  </si>
-  <si>
-    <t>The difference is \( \frac{9}{11} - \frac{4}{11} = \frac{5}{11} \).</t>
+    <t>Divide the fraction \( \frac{9}{5} \) by \( \frac{3}{10} \).</t>
+  </si>
+  <si>
+    <t>\(\frac{30}{6}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{30}{3}\)</t>
+  </si>
+  <si>
+    <t>\(\frac{15}{5}\)</t>
+  </si>
+  <si>
+    <t>\(6\)</t>
+  </si>
+  <si>
+    <t>To divide by a fraction, multiply by its reciprocal. The reciprocal of \( \frac{3}{10} \) is \( \frac{10}{3} \). Compute: \( \frac{9}{5} \times \frac{10}{3} = \frac{9 \times 10}{5 \times 3} = \frac{90}{15} \). Simplify: \( \frac{90}{15} = \frac{6}{1} = 6 \). So the answer is \(6\).</t>
   </si>
   <si>
     <t>RN_134</t>
   </si>
   <si>
-    <t>Find the sum of \( \frac{3}{4} \) and \( \frac{2}{5} \) by converting to like denominators.</t>
-  </si>
-  <si>
-    <t>\( \frac{19}{20} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{23}{20} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{1}{20} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{7}{20} \)</t>
-  </si>
-  <si>
-    <t>To find the sum, first convert the fractions to have a common denominator: \( \frac{3}{4} = \frac{15}{20} \) and \( \frac{2}{5} = \frac{8}{20} \). Then, add the numerators: \( \frac{15}{20} + \frac{8}{20} = \frac{23}{20} \).</t>
+    <t>Sarah has \((3 \frac{1}{2})\) cups of flour and needs to add \((2 \frac{3}{4})\) cups more to make a cake. How much flour does she have in total?</t>
+  </si>
+  <si>
+    <t>\( 6 \frac{1}{4}\)</t>
+  </si>
+  <si>
+    <t>\( 5 \frac{1}{4}\)</t>
+  </si>
+  <si>
+    <t>\( 6 \frac{1}{2}\)</t>
+  </si>
+  <si>
+    <t>\( 5 \frac{1}{2}\)</t>
+  </si>
+  <si>
+    <t>Convert mixed numbers to improper fractions: \(3 \frac{1}{2} = \frac{7}{2}\) and \(2 \frac{3}{4} = \frac{11}{4}\). Find a common denominator: \(\frac{7}{2} = \frac{14}{4}\). Add the fractions: \(\frac{14}{4} + \frac{11}{4} = \frac{25}{4}\). Convert back to a mixed number: \(\frac{25}{4} = 6 \frac{1}{4}\).</t>
   </si>
   <si>
     <t>RN_135</t>
-  </si>
-  <si>
-    <t>Find the product of \( \frac{7}{3} \) and \( \frac{5}{6} \) by converting to like denominators.</t>
-  </si>
-  <si>
-    <t>\( \frac{42}{9} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{35}{9} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{42}{18} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{35}{18} \)</t>
-  </si>
-  <si>
-    <t>To find the product, multiply the numerators and the denominators directly: \( \frac{7}{3} \times \frac{5}{6} = \frac{7 \times 5}{3 \times 6} = \frac{35}{18} \).</t>
-  </si>
-  <si>
-    <t>RN_136</t>
-  </si>
-  <si>
-    <t>Compute the sum of the following rational numbers: \( \frac{3}{4}, \frac{5}{6}, \frac{7}{12} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{9}{24}\)</t>
-  </si>
-  <si>
-    <t>\( \frac{13}{6}\)</t>
-  </si>
-  <si>
-    <t>\( \frac{51}{24}\)</t>
-  </si>
-  <si>
-    <t>\( \frac{62}{24}\)</t>
-  </si>
-  <si>
-    <t>To find the sum, first find a common denominator. The least common multiple of 4, 6, and 12 is 12. Convert each fraction: \( \frac{3}{4} = \frac{9}{12} \), \( \frac{5}{6} = \frac{10}{12} \), \( \frac{7}{12} = \frac{7}{12} \). Sum them up: \( \frac{9}{12} + \frac{10}{12} + \frac{7}{12} = \frac{26}{12} \). Simplifying \( \frac{26}{12} \) gives \( \frac{13}{6} \) .</t>
-  </si>
-  <si>
-    <t>RN_137</t>
-  </si>
-  <si>
-    <t>Compute the product of the following rational numbers: \( \frac{1}{2}, \frac{3}{5}, \frac{4}{7} \).</t>
-  </si>
-  <si>
-    <t>\( \frac{2}{35}\)</t>
-  </si>
-  <si>
-    <t>\( \frac{3}{35} \)</t>
-  </si>
-  <si>
-    <t>\( \frac{6}{35}\)</t>
-  </si>
-  <si>
-    <t>\( \frac{12}{35}\)</t>
-  </si>
-  <si>
-    <t>To find the product, multiply the numerators and the denominators: \( \frac{1 \times 3 \times 4}{2 \times 5 \times 7} = \frac{12}{70} \). Simplifying \( \frac{12}{70} \) gives \( \frac{6}{35} \).</t>
-  </si>
-  <si>
-    <t>RN_138</t>
-  </si>
-  <si>
-    <t>Calculate the sum of the fractions \( \frac{7}{4} \) and \( \frac{5}{6} \).</t>
-  </si>
-  <si>
-    <t>\(\frac{31}{12}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{19}{24}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{29}{12}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{17}{6}\)</t>
-  </si>
-  <si>
-    <t>First, find the least common denominator (LCD) of \(4\) and \(6\), which is \(12\). Convert \( \frac{7}{4} \) to an equivalent fraction with denominator \(12\): \( \frac{7 \times 3}{4 \times 3} = \frac{21}{12} \). Convert \( \frac{5}{6} \) to an equivalent fraction with denominator \(12\): \( \frac{5 \times 2}{6 \times 2} = \frac{10}{12} \). Add the two fractions: \( \frac{21}{12} + \frac{10}{12} = \frac{31}{12} \). Simplify if necessary: \( \frac{31}{12} \) is already in simplest form.</t>
-  </si>
-  <si>
-    <t>RN_139</t>
-  </si>
-  <si>
-    <t>Divide the fraction \( \frac{9}{5} \) by \( \frac{3}{10} \).</t>
-  </si>
-  <si>
-    <t>\(\frac{30}{6}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{30}{3}\)</t>
-  </si>
-  <si>
-    <t>\(\frac{15}{5}\)</t>
-  </si>
-  <si>
-    <t>\(6\)</t>
-  </si>
-  <si>
-    <t>To divide by a fraction, multiply by its reciprocal. The reciprocal of \( \frac{3}{10} \) is \( \frac{10}{3} \). Compute: \( \frac{9}{5} \times \frac{10}{3} = \frac{9 \times 10}{5 \times 3} = \frac{90}{15} \). Simplify: \( \frac{90}{15} = \frac{6}{1} = 6 \). So the answer is \(6\).</t>
-  </si>
-  <si>
-    <t>RN_140</t>
-  </si>
-  <si>
-    <t>Sarah has \((3 \frac{1}{2})\) cups of flour and needs to add \((2 \frac{3}{4})\) cups more to make a cake. How much flour does she have in total?</t>
-  </si>
-  <si>
-    <t>\( 6 \frac{1}{4}\)</t>
-  </si>
-  <si>
-    <t>\( 5 \frac{1}{4}\)</t>
-  </si>
-  <si>
-    <t>\( 6 \frac{1}{2}\)</t>
-  </si>
-  <si>
-    <t>\( 5 \frac{1}{2}\)</t>
-  </si>
-  <si>
-    <t>Convert mixed numbers to improper fractions: \(3 \frac{1}{2} = \frac{7}{2}\) and \(2 \frac{3}{4} = \frac{11}{4}\). Find a common denominator: \(\frac{7}{2} = \frac{14}{4}\). Add the fractions: \(\frac{14}{4} + \frac{11}{4} = \frac{25}{4}\). Convert back to a mixed number: \(\frac{25}{4} = 6 \frac{1}{4}\).</t>
-  </si>
-  <si>
-    <t>RN_141</t>
   </si>
   <si>
     <t>A recipe requires \((4 \frac{2}{3})\) cups of sugar, but you only have \((3 \frac{1}{2})\) cups. How much more sugar do you need?</t>
@@ -5436,18 +5322,18 @@
         <v>316</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>323</v>
       </c>
       <c r="M55" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="5">
-        <f t="shared" ref="A56:A80" si="3">A55+1</f>
+        <f t="shared" ref="A56:A74" si="3">A55+1</f>
         <v>52</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -5478,13 +5364,13 @@
         <v>316</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>330</v>
       </c>
       <c r="M56" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5526,7 +5412,7 @@
         <v>337</v>
       </c>
       <c r="M57" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5568,7 +5454,7 @@
         <v>344</v>
       </c>
       <c r="M58" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5604,13 +5490,13 @@
         <v>316</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>351</v>
       </c>
       <c r="M59" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -5646,13 +5532,13 @@
         <v>316</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>358</v>
       </c>
       <c r="M60" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -5679,7 +5565,7 @@
         <v>363</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I61" s="5" t="b">
         <v>1</v>
@@ -5688,13 +5574,13 @@
         <v>316</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M61" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -5703,25 +5589,25 @@
         <v>58</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="F62" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="H62" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>371</v>
       </c>
       <c r="I62" s="5" t="b">
         <v>1</v>
@@ -5730,13 +5616,13 @@
         <v>316</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M62" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -5745,25 +5631,25 @@
         <v>59</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="G63" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="H63" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="I63" s="5" t="b">
         <v>1</v>
@@ -5772,13 +5658,13 @@
         <v>316</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M63" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -5787,25 +5673,25 @@
         <v>60</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="G64" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="H64" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="I64" s="5" t="b">
         <v>1</v>
@@ -5814,13 +5700,13 @@
         <v>316</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M64" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -5829,25 +5715,25 @@
         <v>61</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="D65" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="G65" s="5" t="s">
-        <v>391</v>
+        <v>260</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>392</v>
+        <v>112</v>
       </c>
       <c r="I65" s="5" t="b">
         <v>1</v>
@@ -5856,13 +5742,13 @@
         <v>316</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M65" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -5871,25 +5757,25 @@
         <v>62</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>398</v>
-      </c>
       <c r="H66" s="5" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="I66" s="5" t="b">
         <v>1</v>
@@ -5898,13 +5784,13 @@
         <v>316</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M66" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -5913,25 +5799,25 @@
         <v>63</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>403</v>
+        <v>255</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>404</v>
+        <v>136</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I67" s="5" t="b">
         <v>1</v>
@@ -5943,10 +5829,10 @@
         <v>48</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M67" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -5955,25 +5841,25 @@
         <v>64</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="I68" s="5" t="b">
         <v>1</v>
@@ -5982,13 +5868,13 @@
         <v>316</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M68" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -5997,25 +5883,25 @@
         <v>65</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>419</v>
+        <v>136</v>
       </c>
       <c r="I69" s="5" t="b">
         <v>1</v>
@@ -6024,13 +5910,13 @@
         <v>316</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M69" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -6039,25 +5925,25 @@
         <v>66</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>425</v>
+        <v>293</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>426</v>
+        <v>38</v>
       </c>
       <c r="I70" s="5" t="b">
         <v>1</v>
@@ -6066,13 +5952,13 @@
         <v>316</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="M70" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -6081,25 +5967,25 @@
         <v>67</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>249</v>
+        <v>421</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>430</v>
+        <v>54</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>260</v>
+        <v>422</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>112</v>
+        <v>423</v>
       </c>
       <c r="I71" s="5" t="b">
         <v>1</v>
@@ -6111,10 +5997,10 @@
         <v>40</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M71" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -6123,25 +6009,25 @@
         <v>68</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>434</v>
+        <v>310</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I72" s="5" t="b">
         <v>1</v>
@@ -6153,10 +6039,10 @@
         <v>68</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M72" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -6165,25 +6051,25 @@
         <v>69</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>255</v>
+        <v>433</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>136</v>
+        <v>434</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="I73" s="5" t="b">
         <v>1</v>
@@ -6192,13 +6078,13 @@
         <v>316</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M73" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -6207,25 +6093,25 @@
         <v>70</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>445</v>
+        <v>38</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>446</v>
+        <v>157</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I74" s="5" t="b">
         <v>1</v>
@@ -6234,316 +6120,316 @@
         <v>316</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="M74" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="5">
-        <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>20</v>
+      <c r="A75" s="4"/>
+      <c r="B75" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I75" s="5" t="b">
+        <v>445</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4" t="b">
         <v>1</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L75" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="M75" s="5">
-        <v>4.0</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="5">
-        <f t="shared" si="3"/>
-        <v>72</v>
+        <v>71.0</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>458</v>
+        <v>38</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>293</v>
+        <v>450</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>38</v>
+        <v>441</v>
       </c>
       <c r="I76" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>316</v>
+        <v>446</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="M76" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="5">
-        <f t="shared" si="3"/>
-        <v>73</v>
+        <f t="shared" ref="A77:A100" si="4">A76+1</f>
+        <v>72</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>463</v>
+        <v>143</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="I77" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>316</v>
+        <v>446</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="M77" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="5">
-        <f t="shared" si="3"/>
-        <v>74</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>310</v>
+        <v>458</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>322</v>
+        <v>459</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>470</v>
+        <v>293</v>
       </c>
       <c r="I78" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>316</v>
+        <v>446</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="M78" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="5">
-        <f t="shared" si="3"/>
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>74</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>477</v>
+        <v>143</v>
       </c>
       <c r="I79" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>316</v>
+        <v>446</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="M79" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="I80" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="M80" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="5">
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="I80" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="M80" s="5">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="4"/>
-      <c r="B81" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>15</v>
+      <c r="B81" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4" t="b">
+        <v>474</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I81" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
+        <v>446</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="M81" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="5">
-        <v>77.0</v>
+        <f t="shared" si="4"/>
+        <v>77</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>20</v>
@@ -6552,10 +6438,10 @@
         <v>38</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>482</v>
@@ -6564,58 +6450,58 @@
         <v>1</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="M82" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="5">
-        <f t="shared" ref="A83:A106" si="4">A82+1</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>22</v>
+        <v>441</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="I83" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>48</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="M83" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -6624,40 +6510,40 @@
         <v>79</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>501</v>
+        <v>22</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>293</v>
+        <v>475</v>
       </c>
       <c r="I84" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="M84" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -6666,40 +6552,40 @@
         <v>80</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>143</v>
+        <v>441</v>
       </c>
       <c r="I85" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="M85" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -6708,40 +6594,40 @@
         <v>81</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E86" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="I86" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L86" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="I86" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L86" s="5" t="s">
-        <v>512</v>
-      </c>
       <c r="M86" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
@@ -6750,40 +6636,40 @@
         <v>82</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="I87" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="M87" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
@@ -6792,40 +6678,40 @@
         <v>83</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>38</v>
+        <v>510</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="I88" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K88" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="M88" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
@@ -6834,22 +6720,22 @@
         <v>84</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>517</v>
@@ -6858,16 +6744,16 @@
         <v>1</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K89" s="5" t="s">
         <v>48</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M89" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
@@ -6876,40 +6762,40 @@
         <v>85</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>22</v>
+        <v>525</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="I90" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M90" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
@@ -6918,31 +6804,31 @@
         <v>86</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="H91" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>482</v>
-      </c>
       <c r="I91" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>25</v>
@@ -6951,7 +6837,7 @@
         <v>534</v>
       </c>
       <c r="M91" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
@@ -6984,16 +6870,16 @@
         <v>1</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M92" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
@@ -7026,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>25</v>
@@ -7035,7 +6921,7 @@
         <v>548</v>
       </c>
       <c r="M93" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
@@ -7068,16 +6954,16 @@
         <v>1</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>555</v>
       </c>
       <c r="M94" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
@@ -7104,22 +6990,22 @@
         <v>560</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="I95" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M95" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
@@ -7128,40 +7014,40 @@
         <v>91</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I96" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M96" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -7170,19 +7056,19 @@
         <v>92</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>573</v>
@@ -7194,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="K97" s="5" t="s">
         <v>25</v>
@@ -7203,7 +7089,7 @@
         <v>575</v>
       </c>
       <c r="M97" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
@@ -7224,28 +7110,28 @@
         <v>578</v>
       </c>
       <c r="F98" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="H98" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="I98" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L98" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="H98" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="I98" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J98" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L98" s="5" t="s">
-        <v>582</v>
-      </c>
       <c r="M98" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
@@ -7254,40 +7140,40 @@
         <v>94</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="F99" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99" s="5" t="s">
+      <c r="G99" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="H99" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="I99" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L99" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="H99" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="I99" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="K99" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L99" s="5" t="s">
-        <v>589</v>
-      </c>
       <c r="M99" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
@@ -7296,415 +7182,415 @@
         <v>95</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F100" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="G100" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="I100" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L100" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E100" s="5" t="s">
+      <c r="M100" s="5">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="4"/>
+      <c r="B101" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="C101" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="D101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="I100" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="K100" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L100" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="M100" s="5">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="5">
-        <f t="shared" si="4"/>
-        <v>96</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="I101" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L101" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="M101" s="5">
-        <v>4.0</v>
-      </c>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="6"/>
+      <c r="Y101" s="6"/>
+      <c r="Z101" s="6"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="5">
-        <f t="shared" si="4"/>
-        <v>97</v>
+        <v>96.0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>341</v>
+        <v>598</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>342</v>
+        <v>599</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>340</v>
+        <v>601</v>
       </c>
       <c r="I102" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>487</v>
+        <v>595</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="M102" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="5">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <f t="shared" ref="A103:A126" si="5">A102+1</f>
+        <v>97</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="I103" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>487</v>
+        <v>595</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="M103" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="5">
-        <f t="shared" si="4"/>
-        <v>99</v>
+        <f t="shared" si="5"/>
+        <v>98</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>341</v>
+        <v>599</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="I104" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>487</v>
+        <v>595</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="M104" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="5">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>99</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="I105" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>487</v>
+        <v>595</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="M105" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="I106" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="M106" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="5">
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="I106" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="K106" s="5" t="s">
+      <c r="B107" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="I107" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="K107" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L106" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="M106" s="5">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="4"/>
-      <c r="B107" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="6"/>
-      <c r="T107" s="6"/>
-      <c r="U107" s="6"/>
-      <c r="V107" s="6"/>
-      <c r="W107" s="6"/>
-      <c r="X107" s="6"/>
-      <c r="Y107" s="6"/>
-      <c r="Z107" s="6"/>
+      <c r="L107" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="M107" s="5">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="5">
-        <v>102.0</v>
+        <f t="shared" si="5"/>
+        <v>102</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="I108" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="M108" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="5">
-        <f t="shared" ref="A109:A132" si="5">A108+1</f>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="I109" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="M109" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
@@ -7713,40 +7599,40 @@
         <v>104</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="I110" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="M110" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
@@ -7755,40 +7641,40 @@
         <v>105</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="H111" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>639</v>
-      </c>
       <c r="I111" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>649</v>
       </c>
       <c r="M111" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
@@ -7806,31 +7692,31 @@
         <v>20</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="I112" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="M112" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
@@ -7839,40 +7725,40 @@
         <v>107</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="I113" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="M113" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
@@ -7881,40 +7767,40 @@
         <v>108</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="I114" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="M114" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
@@ -7923,40 +7809,40 @@
         <v>109</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="I115" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="M115" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
@@ -7965,40 +7851,40 @@
         <v>110</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="I116" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="M116" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
@@ -8007,40 +7893,40 @@
         <v>111</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>686</v>
+        <v>60</v>
       </c>
       <c r="I117" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="M117" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
@@ -8049,40 +7935,40 @@
         <v>112</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C118" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>692</v>
-      </c>
       <c r="H118" s="5" t="s">
-        <v>693</v>
+        <v>60</v>
       </c>
       <c r="I118" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M118" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
@@ -8091,40 +7977,40 @@
         <v>113</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>700</v>
+        <v>60</v>
       </c>
       <c r="I119" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M119" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
@@ -8133,40 +8019,40 @@
         <v>114</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="D120" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E120" s="5" t="s">
+      <c r="F120" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="F120" s="5" t="s">
-        <v>705</v>
-      </c>
       <c r="G120" s="5" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>707</v>
+        <v>60</v>
       </c>
       <c r="I120" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K120" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="M120" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
@@ -8175,40 +8061,40 @@
         <v>115</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F121" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="G121" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I121" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L121" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="I121" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="K121" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L121" s="5" t="s">
-        <v>715</v>
-      </c>
       <c r="M121" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
@@ -8217,40 +8103,40 @@
         <v>116</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I122" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L122" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="I122" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="K122" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L122" s="5" t="s">
-        <v>722</v>
-      </c>
       <c r="M122" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
@@ -8259,22 +8145,22 @@
         <v>117</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>726</v>
+        <v>0</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>60</v>
@@ -8283,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="M123" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
@@ -8301,22 +8187,22 @@
         <v>118</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>60</v>
@@ -8325,16 +8211,16 @@
         <v>1</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="M124" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
@@ -8343,22 +8229,22 @@
         <v>119</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>60</v>
@@ -8367,16 +8253,16 @@
         <v>1</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="M125" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
@@ -8385,22 +8271,22 @@
         <v>120</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>60</v>
@@ -8409,283 +8295,280 @@
         <v>1</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M126" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="5">
-        <f t="shared" si="5"/>
-        <v>121</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>20</v>
+      <c r="A127" s="4"/>
+      <c r="B127" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I127" s="5" t="b">
+        <v>741</v>
+      </c>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4" t="b">
         <v>1</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="K127" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L127" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="M127" s="5">
-        <v>4.0</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
+      <c r="R127" s="6"/>
+      <c r="S127" s="6"/>
+      <c r="T127" s="6"/>
+      <c r="U127" s="6"/>
+      <c r="V127" s="6"/>
+      <c r="W127" s="6"/>
+      <c r="X127" s="6"/>
+      <c r="Y127" s="6"/>
+      <c r="Z127" s="6"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="5">
-        <f t="shared" si="5"/>
-        <v>122</v>
+        <v>121.0</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>753</v>
+        <v>404</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>60</v>
+        <v>747</v>
       </c>
       <c r="I128" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>633</v>
+        <v>742</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="M128" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="5">
-        <f t="shared" si="5"/>
-        <v>123</v>
+        <f t="shared" ref="A129:A132" si="6">A128+1</f>
+        <v>122</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>757</v>
+        <v>260</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>60</v>
+        <v>752</v>
       </c>
       <c r="I129" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>633</v>
+        <v>742</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="M129" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="5">
-        <f t="shared" si="5"/>
-        <v>124</v>
+        <f t="shared" si="6"/>
+        <v>123</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>763</v>
+        <v>399</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>764</v>
+        <v>398</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>60</v>
+        <v>757</v>
       </c>
       <c r="I130" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>633</v>
+        <v>742</v>
       </c>
       <c r="K130" s="5" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="M130" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="5">
-        <f t="shared" si="5"/>
-        <v>125</v>
+        <f t="shared" si="6"/>
+        <v>124</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>768</v>
+        <v>406</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>60</v>
+        <v>403</v>
       </c>
       <c r="I131" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>633</v>
+        <v>742</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="M131" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="5">
-        <f t="shared" si="5"/>
-        <v>126</v>
+        <f t="shared" si="6"/>
+        <v>125</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="G132" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="I132" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L132" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="H132" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I132" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="K132" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L132" s="5" t="s">
-        <v>776</v>
-      </c>
       <c r="M132" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="8" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
@@ -8694,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -8715,40 +8598,41 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="5">
-        <v>127.0</v>
+        <f>A132+1</f>
+        <v>126</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>446</v>
+        <v>779</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>785</v>
+        <v>293</v>
       </c>
       <c r="I134" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="K134" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="M134" s="5">
         <v>1.0</v>
@@ -8756,41 +8640,41 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="5">
-        <f t="shared" ref="A135:A138" si="6">A134+1</f>
-        <v>128</v>
+        <f t="shared" ref="A135:A143" si="7">A134+1</f>
+        <v>127</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>260</v>
+        <v>783</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>435</v>
+        <v>784</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="I135" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="K135" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L135" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="M135" s="5">
         <v>1.0</v>
@@ -8798,92 +8682,92 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="5">
-        <f t="shared" si="6"/>
-        <v>129</v>
+        <f t="shared" si="7"/>
+        <v>128</v>
       </c>
       <c r="B136" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="G136" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="H136" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E136" s="5" t="s">
+      <c r="I136" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L136" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="F136" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="I136" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" s="8" t="s">
-        <v>780</v>
-      </c>
-      <c r="K136" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L136" s="5" t="s">
-        <v>796</v>
-      </c>
       <c r="M136" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="5">
-        <f t="shared" si="6"/>
-        <v>130</v>
+        <f t="shared" si="7"/>
+        <v>129</v>
       </c>
       <c r="B137" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="F137" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="F137" s="5" t="s">
+      <c r="G137" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="G137" s="5" t="s">
+      <c r="H137" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="H137" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="I137" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="K137" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L137" s="5" t="s">
         <v>801</v>
       </c>
       <c r="M137" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="5">
-        <f t="shared" si="6"/>
-        <v>131</v>
+        <f t="shared" si="7"/>
+        <v>130</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>802</v>
@@ -8910,140 +8794,142 @@
         <v>1</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="K138" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="L138" s="5" t="s">
         <v>808</v>
       </c>
       <c r="M138" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="4"/>
-      <c r="B139" s="8" t="s">
+      <c r="A139" s="5">
+        <f t="shared" si="7"/>
+        <v>131</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>15</v>
+      <c r="D139" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4" t="b">
+      <c r="F139" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="I139" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="6"/>
-      <c r="O139" s="6"/>
-      <c r="P139" s="6"/>
-      <c r="Q139" s="6"/>
-      <c r="R139" s="6"/>
-      <c r="S139" s="6"/>
-      <c r="T139" s="6"/>
-      <c r="U139" s="6"/>
-      <c r="V139" s="6"/>
-      <c r="W139" s="6"/>
-      <c r="X139" s="6"/>
-      <c r="Y139" s="6"/>
-      <c r="Z139" s="6"/>
+        <v>774</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L139" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="M139" s="5">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="5">
-        <f>A138+1</f>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>293</v>
+        <v>821</v>
       </c>
       <c r="I140" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>812</v>
+        <v>774</v>
       </c>
       <c r="K140" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="M140" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="5">
-        <f t="shared" ref="A141:A149" si="7">A140+1</f>
+        <f t="shared" si="7"/>
         <v>133</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="I141" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>812</v>
+        <v>774</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="M141" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
@@ -9052,40 +8938,40 @@
         <v>134</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="I142" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>812</v>
+        <v>774</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="M142" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
@@ -9094,294 +8980,48 @@
         <v>135</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="I143" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>812</v>
+        <v>774</v>
       </c>
       <c r="K143" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="L143" s="5" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="M143" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="5">
-        <f t="shared" si="7"/>
-        <v>136</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="I144" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="K144" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L144" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="M144" s="5">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="5">
-        <f t="shared" si="7"/>
-        <v>137</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="I145" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="K145" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L145" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="M145" s="5">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="5">
-        <f t="shared" si="7"/>
-        <v>138</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="I146" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="K146" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L146" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="M146" s="5">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="5">
-        <f t="shared" si="7"/>
-        <v>139</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>866</v>
-      </c>
-      <c r="I147" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="K147" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L147" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="M147" s="5">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="5">
-        <f t="shared" si="7"/>
-        <v>140</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="I148" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J148" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="K148" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L148" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="M148" s="5">
         <v>5.0</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="5">
-        <f t="shared" si="7"/>
-        <v>141</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="I149" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="K149" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L149" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="M149" s="5">
-        <v>5.0</v>
-      </c>
-    </row>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
     <row r="150" ht="15.75" customHeight="1"/>
     <row r="151" ht="15.75" customHeight="1"/>
     <row r="152" ht="15.75" customHeight="1"/>
@@ -10233,12 +9873,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10259,13 +9893,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>882</v>
+        <v>844</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>883</v>
+        <v>845</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>884</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2">
@@ -10303,10 +9937,10 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="C5" s="10" t="b">
         <v>1</v>
@@ -10314,10 +9948,10 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="C6" s="10" t="b">
         <v>1</v>
@@ -10325,10 +9959,10 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>779</v>
+        <v>741</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>780</v>
+        <v>742</v>
       </c>
       <c r="C7" s="10" t="b">
         <v>1</v>
@@ -10336,10 +9970,10 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>811</v>
+        <v>773</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>812</v>
+        <v>774</v>
       </c>
       <c r="C8" s="10" t="b">
         <v>1</v>
@@ -10362,27 +9996,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
-        <v>885</v>
+        <v>847</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>886</v>
+        <v>848</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>887</v>
+        <v>849</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>888</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>889</v>
+        <v>851</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>890</v>
+        <v>852</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>891</v>
+        <v>853</v>
       </c>
       <c r="D2" s="17">
         <v>0.0</v>
